--- a/Outputs/1. Budget/Output Files/100000/Output_7_37.xlsx
+++ b/Outputs/1. Budget/Output Files/100000/Output_7_37.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2259700.656108525</v>
+        <v>2265351.837110305</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2497957.963255552</v>
+        <v>2497957.963255553</v>
       </c>
     </row>
     <row r="8">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>76.44153930226776</v>
@@ -1466,10 +1466,10 @@
         <v>76.44153930226776</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>76.44153930226776</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.32970781743744</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>67.32970781743744</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>76.44153930226776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>76.44153930226776</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>26.59602641723143</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>26.59602641723143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>67.32970781743744</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>76.44153930226776</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>76.44153930226776</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>76.44153930226776</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>76.44153930226776</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>26.59602641723144</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>76.44153930226776</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>26.59602641723144</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1925,22 +1925,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>159.5959183657193</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>101.9401920486994</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>144.5324998328046</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>131.9566317707875</v>
       </c>
       <c r="G18" t="n">
-        <v>124.2309365406142</v>
+        <v>124.2309365406143</v>
       </c>
       <c r="H18" t="n">
-        <v>99.12286361390007</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>87.04525353004674</v>
+        <v>87.04525353004676</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>158.5705904812415</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>187.0521480722252</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>219.6880065268289</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>238.5824025383232</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.062871160986735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>132.3084674003348</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>194.7778848619237</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>62.46941746158891</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>18.91849662915473</v>
+        <v>79.52526825841079</v>
       </c>
       <c r="F20" t="n">
         <v>241.0142888776591</v>
@@ -2101,7 +2101,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>193.3668890142874</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>132.7601173850312</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>149.4241830937488</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>155.5994984321972</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>72.93495134983804</v>
       </c>
       <c r="G21" t="n">
-        <v>18.48090827712713</v>
+        <v>120.2345166070922</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.04883359652466</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>208.8323815248563</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>215.6915865933068</v>
       </c>
       <c r="W21" t="n">
         <v>234.5859826048011</v>
       </c>
       <c r="X21" t="n">
-        <v>188.663984647359</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.5736952211859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>5.761685913230233</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>160.184390821051</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>54.17794992509769</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6006548329187</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>138.4157846720357</v>
       </c>
       <c r="C23" t="n">
-        <v>71.30593510521953</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>310.9207631966142</v>
       </c>
       <c r="H23" t="n">
-        <v>252.9505671373232</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>123.9516545919619</v>
+        <v>123.951654591962</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>63.34488296270574</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>122.4958346078014</v>
       </c>
       <c r="T23" t="n">
         <v>136.5716145856874</v>
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>80.0089486714234</v>
       </c>
       <c r="C24" t="n">
-        <v>86.18426400987177</v>
+        <v>5.737601037029167</v>
       </c>
       <c r="D24" t="n">
-        <v>60.92083058619478</v>
+        <v>60.92083058619481</v>
       </c>
       <c r="E24" t="n">
-        <v>71.12084547695697</v>
+        <v>71.120845476957</v>
       </c>
       <c r="F24" t="n">
-        <v>58.54497741493991</v>
+        <v>58.54497741493994</v>
       </c>
       <c r="G24" t="n">
-        <v>50.81928218476666</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>25.71120925805249</v>
+        <v>25.71120925805252</v>
       </c>
       <c r="I24" t="n">
-        <v>2.872397872971106</v>
+        <v>2.872397872971135</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>13.63359917419916</v>
+        <v>13.63359917419919</v>
       </c>
       <c r="S24" t="n">
-        <v>85.15893612539385</v>
+        <v>85.15893612539388</v>
       </c>
       <c r="T24" t="n">
-        <v>113.6404937163776</v>
+        <v>113.6404937163777</v>
       </c>
       <c r="U24" t="n">
-        <v>88.16015061634538</v>
+        <v>139.4171471025309</v>
       </c>
       <c r="V24" t="n">
         <v>146.2763521709813</v>
       </c>
       <c r="W24" t="n">
-        <v>165.1707481824756</v>
+        <v>165.1707481824757</v>
       </c>
       <c r="X24" t="n">
         <v>119.2487502250335</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>80.72258612018386</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>62.09123803976838</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>59.9097276681252</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>58.89681304448727</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>141.4213544498375</v>
+        <v>141.4213544498376</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>14.82227222741795</v>
+        <v>165.6134083453841</v>
       </c>
       <c r="W25" t="n">
-        <v>199.998763358147</v>
+        <v>178.7675737390947</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>132.0604183736509</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>175.1432771263096</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>63.34488296270571</v>
+        <v>63.34488296270574</v>
       </c>
       <c r="S26" t="n">
         <v>122.4958346078014</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>175.1432771263098</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>262.716733738969</v>
+        <v>262.7167337389691</v>
       </c>
       <c r="X26" t="n">
-        <v>283.206865700025</v>
+        <v>283.2068657000251</v>
       </c>
       <c r="Y26" t="n">
-        <v>299.7137036776096</v>
+        <v>299.7137036776097</v>
       </c>
     </row>
     <row r="27">
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>80.00894867142337</v>
+        <v>80.0089486714234</v>
       </c>
       <c r="C27" t="n">
-        <v>86.18426400987177</v>
+        <v>86.1842640098718</v>
       </c>
       <c r="D27" t="n">
-        <v>60.92083058619478</v>
+        <v>60.92083058619481</v>
       </c>
       <c r="E27" t="n">
-        <v>71.12084547695697</v>
+        <v>71.120845476957</v>
       </c>
       <c r="F27" t="n">
-        <v>58.54497741493991</v>
+        <v>58.54497741493994</v>
       </c>
       <c r="G27" t="n">
-        <v>41.67448512516233</v>
+        <v>50.81928218476669</v>
       </c>
       <c r="H27" t="n">
-        <v>25.71120925805249</v>
+        <v>25.71120925805252</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2.872397872971135</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>13.63359917419916</v>
+        <v>13.63359917419919</v>
       </c>
       <c r="S27" t="n">
-        <v>85.15893612539385</v>
+        <v>85.15893612539388</v>
       </c>
       <c r="T27" t="n">
-        <v>113.6404937163776</v>
+        <v>113.6404937163777</v>
       </c>
       <c r="U27" t="n">
-        <v>139.4171471025309</v>
+        <v>8.151201944921635</v>
       </c>
       <c r="V27" t="n">
         <v>146.2763521709813</v>
       </c>
       <c r="W27" t="n">
-        <v>165.1707481824756</v>
+        <v>165.1707481824757</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>119.2487502250335</v>
       </c>
       <c r="Y27" t="n">
         <v>119.1584607988604</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.30774520349333</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>59.9097276681252</v>
+        <v>59.90972766812523</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>58.8968130444873</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>75.70293752899561</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.76915639872551</v>
+        <v>90.76915639872554</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>69.10287402788889</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>98.17442475048048</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>199.998763358147</v>
+        <v>199.9987633581471</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>139.1854204105932</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>296.2096066850366</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>95.15545240690089</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>122.4958346078014</v>
       </c>
       <c r="T29" t="n">
-        <v>136.5716145856874</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>164.8214179293926</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.228023491691</v>
       </c>
       <c r="W29" t="n">
-        <v>68.4236725572605</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>283.206865700025</v>
+        <v>283.2068657000251</v>
       </c>
       <c r="Y29" t="n">
-        <v>299.7137036776096</v>
+        <v>299.7137036776097</v>
       </c>
     </row>
     <row r="30">
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>80.0089486714234</v>
       </c>
       <c r="C30" t="n">
-        <v>86.18426400987177</v>
+        <v>86.1842640098718</v>
       </c>
       <c r="D30" t="n">
-        <v>60.92083058619478</v>
+        <v>60.92083058619481</v>
       </c>
       <c r="E30" t="n">
-        <v>71.12084547695697</v>
+        <v>71.120845476957</v>
       </c>
       <c r="F30" t="n">
-        <v>58.54497741493991</v>
+        <v>58.54497741493994</v>
       </c>
       <c r="G30" t="n">
-        <v>50.81928218476666</v>
+        <v>30.42348241060388</v>
       </c>
       <c r="H30" t="n">
-        <v>25.71120925805249</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.872397872971106</v>
+        <v>2.872397872971135</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>13.63359917419916</v>
+        <v>13.63359917419919</v>
       </c>
       <c r="S30" t="n">
-        <v>85.15893612539385</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>113.6404937163776</v>
+        <v>113.6404937163777</v>
       </c>
       <c r="U30" t="n">
         <v>139.4171471025309</v>
@@ -2933,7 +2933,7 @@
         <v>146.2763521709813</v>
       </c>
       <c r="W30" t="n">
-        <v>113.91375169629</v>
+        <v>165.1707481824757</v>
       </c>
       <c r="X30" t="n">
         <v>119.2487502250335</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>75.70293752899561</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.76915639872554</v>
       </c>
       <c r="S31" t="n">
-        <v>137.4923630585283</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>4.873896584249337</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>199.7947943780469</v>
+        <v>195.0344167774437</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>199.998763358147</v>
+        <v>199.9987633581471</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>132.0604183736509</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>16.20829813279158</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>56.4760651562125</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>115.6270168013082</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>75.35924977788714</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>292.8448858711164</v>
@@ -3122,7 +3122,7 @@
         <v>51.6761596084467</v>
       </c>
       <c r="G33" t="n">
-        <v>43.95046437827344</v>
+        <v>43.95046437827345</v>
       </c>
       <c r="H33" t="n">
         <v>18.84239145155928</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>86.43892739700011</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>73.85376831369065</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>55.22242023327517</v>
       </c>
       <c r="E34" t="n">
         <v>53.04090986163199</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>74.59792657352158</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.0574221423211</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>83.9003385922323</v>
       </c>
       <c r="S34" t="n">
-        <v>130.6235452520351</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>128.4841068092992</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>158.7445905388908</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>153.8198968984202</v>
       </c>
       <c r="X34" t="n">
-        <v>132.3166026041</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>230.878169374945</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>230.878169374945</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3347,22 +3347,22 @@
         <v>77.13655079845226</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D36" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>55.6725795419688</v>
       </c>
       <c r="G36" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>3.722102936326249</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>10.76120130122806</v>
       </c>
       <c r="S36" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U36" t="n">
         <v>136.5447492295597</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>43.33363245236555</v>
       </c>
       <c r="W36" t="n">
         <v>162.2983503095045</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.43534733052222</v>
+        <v>31.16627769693609</v>
       </c>
       <c r="C37" t="n">
-        <v>77.85018824721276</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>56.02441517151617</v>
@@ -3444,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>138.5489565768664</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>9.843601858846645</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3581,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>54.55577300405347</v>
       </c>
       <c r="C39" t="n">
         <v>152.7271005592261</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>127.4636671355491</v>
       </c>
       <c r="E39" t="n">
-        <v>8.22024727455234</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>125.0878139642943</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>117.362118734121</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>92.25404580740685</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>80.17643572355352</v>
       </c>
       <c r="S39" t="n">
-        <v>151.7017726747482</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>231.71358473183</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>22.71026956269623</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3754,58 +3754,58 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>76.44153930226776</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>76.44153930226776</v>
+      </c>
+      <c r="T41" t="n">
+        <v>76.44153930226776</v>
+      </c>
+      <c r="U41" t="n">
         <v>67.32970781743744</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>76.44153930226776</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,67 +3818,67 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
         <v>76.44153930226776</v>
       </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
         <v>76.44153930226776</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
+      <c r="V42" t="n">
         <v>67.32970781743744</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>76.44153930226776</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>26.59602641723144</v>
       </c>
       <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>76.44153930226776</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>26.59602641723146</v>
       </c>
     </row>
     <row r="44">
@@ -3991,52 +3991,52 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>76.44153930226776</v>
+      </c>
+      <c r="S44" t="n">
+        <v>76.44153930226776</v>
+      </c>
+      <c r="T44" t="n">
+        <v>76.44153930226776</v>
+      </c>
+      <c r="U44" t="n">
         <v>67.32970781743744</v>
       </c>
-      <c r="H44" t="n">
-        <v>76.44153930226776</v>
-      </c>
-      <c r="I44" t="n">
-        <v>76.44153930226776</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4064,19 +4064,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>76.44153930226776</v>
+        <v>67.32970781743744</v>
       </c>
       <c r="G45" t="n">
         <v>76.44153930226776</v>
       </c>
       <c r="H45" t="n">
-        <v>67.32970781743744</v>
+        <v>76.44153930226776</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>76.44153930226776</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>76.44153930226776</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>76.44153930226776</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>26.59602641723143</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>26.59602641723143</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5050,10 +5050,10 @@
         <v>157.4695709626716</v>
       </c>
       <c r="M11" t="n">
-        <v>233.1466948719167</v>
+        <v>230.0890332998259</v>
       </c>
       <c r="N11" t="n">
-        <v>305.766157209071</v>
+        <v>230.0890332998259</v>
       </c>
       <c r="O11" t="n">
         <v>305.766157209071</v>
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>237.7563513328716</v>
+        <v>305.766157209071</v>
       </c>
       <c r="C12" t="n">
-        <v>237.7563513328716</v>
+        <v>305.766157209071</v>
       </c>
       <c r="D12" t="n">
-        <v>237.7563513328716</v>
+        <v>305.766157209071</v>
       </c>
       <c r="E12" t="n">
-        <v>160.5426752699749</v>
+        <v>305.766157209071</v>
       </c>
       <c r="F12" t="n">
-        <v>83.32899920707814</v>
+        <v>228.5524811461743</v>
       </c>
       <c r="G12" t="n">
-        <v>6.115323144181421</v>
+        <v>151.3388050832776</v>
       </c>
       <c r="H12" t="n">
-        <v>6.115323144181421</v>
+        <v>74.12512902038085</v>
       </c>
       <c r="I12" t="n">
         <v>6.115323144181421</v>
@@ -5123,19 +5123,19 @@
         <v>6.115323144181421</v>
       </c>
       <c r="K12" t="n">
-        <v>9.340226968006476</v>
+        <v>81.7924470534265</v>
       </c>
       <c r="L12" t="n">
-        <v>85.01735087725156</v>
+        <v>157.4695709626716</v>
       </c>
       <c r="M12" t="n">
-        <v>85.01735087725156</v>
+        <v>233.1466948719167</v>
       </c>
       <c r="N12" t="n">
-        <v>85.01735087725156</v>
+        <v>233.1466948719167</v>
       </c>
       <c r="O12" t="n">
-        <v>160.6944747864966</v>
+        <v>236.3715986957417</v>
       </c>
       <c r="P12" t="n">
         <v>236.3715986957417</v>
@@ -5150,22 +5150,22 @@
         <v>305.766157209071</v>
       </c>
       <c r="T12" t="n">
-        <v>237.7563513328716</v>
+        <v>305.766157209071</v>
       </c>
       <c r="U12" t="n">
-        <v>237.7563513328716</v>
+        <v>305.766157209071</v>
       </c>
       <c r="V12" t="n">
-        <v>237.7563513328716</v>
+        <v>305.766157209071</v>
       </c>
       <c r="W12" t="n">
-        <v>237.7563513328716</v>
+        <v>305.766157209071</v>
       </c>
       <c r="X12" t="n">
-        <v>237.7563513328716</v>
+        <v>305.766157209071</v>
       </c>
       <c r="Y12" t="n">
-        <v>237.7563513328716</v>
+        <v>305.766157209071</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.115323144181421</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="C13" t="n">
-        <v>6.115323144181421</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="D13" t="n">
-        <v>6.115323144181421</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="E13" t="n">
-        <v>6.115323144181421</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="F13" t="n">
-        <v>6.115323144181421</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="G13" t="n">
-        <v>6.115323144181421</v>
+        <v>110.1936723557968</v>
       </c>
       <c r="H13" t="n">
-        <v>6.115323144181421</v>
+        <v>110.1936723557968</v>
       </c>
       <c r="I13" t="n">
-        <v>6.115323144181421</v>
+        <v>32.97999629290004</v>
       </c>
       <c r="J13" t="n">
         <v>6.115323144181421</v>
@@ -5229,22 +5229,22 @@
         <v>187.4073484186935</v>
       </c>
       <c r="T13" t="n">
-        <v>110.1936723557968</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="U13" t="n">
-        <v>32.97999629290004</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="V13" t="n">
-        <v>6.115323144181421</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="W13" t="n">
-        <v>6.115323144181421</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="X13" t="n">
-        <v>6.115323144181421</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.115323144181421</v>
+        <v>187.4073484186935</v>
       </c>
     </row>
     <row r="14">
@@ -5284,13 +5284,13 @@
         <v>81.7924470534265</v>
       </c>
       <c r="L14" t="n">
-        <v>157.4695709626716</v>
+        <v>81.7924470534265</v>
       </c>
       <c r="M14" t="n">
-        <v>233.1466948719167</v>
+        <v>154.4119093905808</v>
       </c>
       <c r="N14" t="n">
-        <v>305.766157209071</v>
+        <v>230.0890332998259</v>
       </c>
       <c r="O14" t="n">
         <v>305.766157209071</v>
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>151.3388050832776</v>
+        <v>305.766157209071</v>
       </c>
       <c r="C15" t="n">
+        <v>305.766157209071</v>
+      </c>
+      <c r="D15" t="n">
+        <v>305.766157209071</v>
+      </c>
+      <c r="E15" t="n">
+        <v>237.7563513328716</v>
+      </c>
+      <c r="F15" t="n">
+        <v>160.5426752699749</v>
+      </c>
+      <c r="G15" t="n">
         <v>83.32899920707814</v>
-      </c>
-      <c r="D15" t="n">
-        <v>83.32899920707814</v>
-      </c>
-      <c r="E15" t="n">
-        <v>83.32899920707814</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6.115323144181421</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6.115323144181421</v>
       </c>
       <c r="H15" t="n">
         <v>6.115323144181421</v>
@@ -5360,19 +5360,19 @@
         <v>6.115323144181421</v>
       </c>
       <c r="K15" t="n">
-        <v>9.340226968006476</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="L15" t="n">
-        <v>9.340226968006476</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="M15" t="n">
-        <v>85.01735087725156</v>
+        <v>81.7924470534265</v>
       </c>
       <c r="N15" t="n">
-        <v>160.6944747864966</v>
+        <v>157.4695709626716</v>
       </c>
       <c r="O15" t="n">
-        <v>236.3715986957417</v>
+        <v>233.1466948719167</v>
       </c>
       <c r="P15" t="n">
         <v>236.3715986957417</v>
@@ -5402,7 +5402,7 @@
         <v>305.766157209071</v>
       </c>
       <c r="Y15" t="n">
-        <v>228.5524811461743</v>
+        <v>305.766157209071</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.115323144181421</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="C16" t="n">
-        <v>6.115323144181421</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="D16" t="n">
-        <v>6.115323144181421</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="E16" t="n">
-        <v>6.115323144181421</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="F16" t="n">
-        <v>6.115323144181421</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="G16" t="n">
-        <v>6.115323144181421</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="H16" t="n">
-        <v>6.115323144181421</v>
+        <v>110.1936723557968</v>
       </c>
       <c r="I16" t="n">
-        <v>6.115323144181421</v>
+        <v>83.32899920707814</v>
       </c>
       <c r="J16" t="n">
         <v>6.115323144181421</v>
@@ -5469,19 +5469,19 @@
         <v>187.4073484186935</v>
       </c>
       <c r="U16" t="n">
-        <v>110.1936723557968</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="V16" t="n">
-        <v>83.32899920707814</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="W16" t="n">
-        <v>6.115323144181421</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="X16" t="n">
-        <v>6.115323144181421</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.115323144181421</v>
+        <v>187.4073484186935</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>462.0867974793729</v>
       </c>
       <c r="H17" t="n">
-        <v>218.6380208352728</v>
+        <v>218.6380208352729</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>406.0990406053983</v>
+        <v>527.0187796687034</v>
       </c>
       <c r="C18" t="n">
-        <v>244.8910422561868</v>
+        <v>527.0187796687034</v>
       </c>
       <c r="D18" t="n">
-        <v>244.8910422561868</v>
+        <v>424.0488887104211</v>
       </c>
       <c r="E18" t="n">
-        <v>244.8910422561868</v>
+        <v>278.0564646368812</v>
       </c>
       <c r="F18" t="n">
-        <v>244.8910422561868</v>
+        <v>144.7669375956817</v>
       </c>
       <c r="G18" t="n">
-        <v>119.4052477707178</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5597,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>876.1326569954375</v>
+        <v>876.1326569954374</v>
       </c>
       <c r="S18" t="n">
-        <v>876.1326569954375</v>
+        <v>715.9603433780218</v>
       </c>
       <c r="T18" t="n">
-        <v>876.1326569954375</v>
+        <v>527.0187796687034</v>
       </c>
       <c r="U18" t="n">
-        <v>876.1326569954375</v>
+        <v>527.0187796687034</v>
       </c>
       <c r="V18" t="n">
-        <v>654.2255796956103</v>
+        <v>527.0187796687034</v>
       </c>
       <c r="W18" t="n">
-        <v>413.2332538993243</v>
+        <v>527.0187796687034</v>
       </c>
       <c r="X18" t="n">
-        <v>413.2332538993243</v>
+        <v>527.0187796687034</v>
       </c>
       <c r="Y18" t="n">
-        <v>406.0990406053983</v>
+        <v>527.0187796687034</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.9260596762075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>152.9260596762075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>152.9260596762075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>152.9260596762075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
         <v>19.28114311021272</v>
@@ -5679,46 +5679,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>59.57672293429614</v>
+        <v>59.57672293429611</v>
       </c>
       <c r="M19" t="n">
-        <v>111.7462159428888</v>
+        <v>111.7462159428887</v>
       </c>
       <c r="N19" t="n">
-        <v>168.4185214146955</v>
+        <v>168.4185214146954</v>
       </c>
       <c r="O19" t="n">
-        <v>205.7392528659652</v>
+        <v>205.7392528659651</v>
       </c>
       <c r="P19" t="n">
-        <v>216.0264813545802</v>
+        <v>216.0264813545801</v>
       </c>
       <c r="Q19" t="n">
-        <v>216.0264813545802</v>
+        <v>216.0264813545801</v>
       </c>
       <c r="R19" t="n">
-        <v>216.0264813545802</v>
+        <v>216.0264813545801</v>
       </c>
       <c r="S19" t="n">
-        <v>216.0264813545802</v>
+        <v>216.0264813545801</v>
       </c>
       <c r="T19" t="n">
-        <v>216.0264813545802</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>216.0264813545802</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>216.0264813545802</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>152.9260596762075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>152.9260596762075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>152.9260596762075</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>829.9560268388875</v>
       </c>
       <c r="C20" t="n">
-        <v>964.0571555106362</v>
+        <v>829.9560268388875</v>
       </c>
       <c r="D20" t="n">
-        <v>964.0571555106362</v>
+        <v>829.9560268388875</v>
       </c>
       <c r="E20" t="n">
-        <v>944.9475629559345</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F20" t="n">
-        <v>701.4987863118345</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G20" t="n">
-        <v>458.0500096677345</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
-        <v>214.6012330236344</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>829.9560268388875</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>829.9560268388875</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>829.9560268388875</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>829.9560268388875</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>829.9560268388875</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>829.9560268388875</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>829.9560268388875</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>829.9560268388875</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>195.1199377660959</v>
+        <v>214.4018178141826</v>
       </c>
       <c r="C21" t="n">
-        <v>37.94872722852296</v>
+        <v>214.4018178141826</v>
       </c>
       <c r="D21" t="n">
-        <v>37.94872722852296</v>
+        <v>214.4018178141826</v>
       </c>
       <c r="E21" t="n">
-        <v>37.94872722852296</v>
+        <v>214.4018178141826</v>
       </c>
       <c r="F21" t="n">
-        <v>37.94872722852296</v>
+        <v>140.7301497840432</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5843,7 +5843,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
         <v>894.6625969973069</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>880.1694448070759</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>880.1694448070759</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>880.1694448070759</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>669.227645287019</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>451.3573557988303</v>
       </c>
       <c r="W21" t="n">
-        <v>727.1016175259886</v>
+        <v>214.4018178141826</v>
       </c>
       <c r="X21" t="n">
-        <v>536.5319360640098</v>
+        <v>214.4018178141826</v>
       </c>
       <c r="Y21" t="n">
-        <v>346.0534560426099</v>
+        <v>214.4018178141826</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25.10102787105134</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>25.10102787105134</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>25.10102787105134</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
         <v>19.28114311021272</v>
@@ -5916,46 +5916,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>63.53317866848302</v>
+        <v>63.53317866848299</v>
       </c>
       <c r="M22" t="n">
         <v>119.6591274112625</v>
       </c>
       <c r="N22" t="n">
-        <v>180.2878886172562</v>
+        <v>180.287888617256</v>
       </c>
       <c r="O22" t="n">
-        <v>221.5650758027128</v>
+        <v>221.5650758027126</v>
       </c>
       <c r="P22" t="n">
-        <v>235.8087600255146</v>
+        <v>235.8087600255145</v>
       </c>
       <c r="Q22" t="n">
-        <v>235.8087600255146</v>
+        <v>235.8087600255145</v>
       </c>
       <c r="R22" t="n">
-        <v>235.8087600255146</v>
+        <v>74.00634505475585</v>
       </c>
       <c r="S22" t="n">
-        <v>235.8087600255146</v>
+        <v>74.00634505475585</v>
       </c>
       <c r="T22" t="n">
-        <v>235.8087600255146</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>235.8087600255146</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>235.8087600255146</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>235.8087600255146</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>25.10102787105134</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>25.10102787105134</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1105.731926942328</v>
+        <v>778.2001064953154</v>
       </c>
       <c r="C23" t="n">
-        <v>1033.705729866349</v>
+        <v>778.2001064953154</v>
       </c>
       <c r="D23" t="n">
-        <v>1033.705729866349</v>
+        <v>778.2001064953154</v>
       </c>
       <c r="E23" t="n">
-        <v>1033.705729866349</v>
+        <v>778.2001064953154</v>
       </c>
       <c r="F23" t="n">
-        <v>719.6443529000719</v>
+        <v>464.1387295290384</v>
       </c>
       <c r="G23" t="n">
-        <v>405.582975933795</v>
+        <v>150.0773525627614</v>
       </c>
       <c r="H23" t="n">
         <v>150.0773525627614</v>
@@ -5989,22 +5989,22 @@
         <v>24.87366105572914</v>
       </c>
       <c r="J23" t="n">
-        <v>24.87366105572914</v>
+        <v>98.70285722332225</v>
       </c>
       <c r="K23" t="n">
-        <v>154.8358606333767</v>
+        <v>287.3768557629043</v>
       </c>
       <c r="L23" t="n">
-        <v>334.9117122180353</v>
+        <v>467.4527073475629</v>
       </c>
       <c r="M23" t="n">
-        <v>551.8873394809394</v>
+        <v>684.428334610467</v>
       </c>
       <c r="N23" t="n">
-        <v>843.4008543168384</v>
+        <v>890.2828568177063</v>
       </c>
       <c r="O23" t="n">
-        <v>992.5958044594864</v>
+        <v>1078.254797088146</v>
       </c>
       <c r="P23" t="n">
         <v>1167.914852380197</v>
@@ -6013,28 +6013,28 @@
         <v>1243.683052786457</v>
       </c>
       <c r="R23" t="n">
-        <v>1243.683052786457</v>
+        <v>1179.698322521098</v>
       </c>
       <c r="S23" t="n">
-        <v>1243.683052786457</v>
+        <v>1055.965156250591</v>
       </c>
       <c r="T23" t="n">
-        <v>1105.731926942328</v>
+        <v>918.0140304064626</v>
       </c>
       <c r="U23" t="n">
-        <v>1105.731926942328</v>
+        <v>918.0140304064626</v>
       </c>
       <c r="V23" t="n">
-        <v>1105.731926942328</v>
+        <v>918.0140304064626</v>
       </c>
       <c r="W23" t="n">
-        <v>1105.731926942328</v>
+        <v>918.0140304064626</v>
       </c>
       <c r="X23" t="n">
-        <v>1105.731926942328</v>
+        <v>918.0140304064626</v>
       </c>
       <c r="Y23" t="n">
-        <v>1105.731926942328</v>
+        <v>918.0140304064626</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>384.6451830797228</v>
+        <v>252.053319284158</v>
       </c>
       <c r="C24" t="n">
-        <v>297.5903709485392</v>
+        <v>246.2577626810983</v>
       </c>
       <c r="D24" t="n">
-        <v>236.0541784372313</v>
+        <v>184.7215701697904</v>
       </c>
       <c r="E24" t="n">
-        <v>164.2149405817192</v>
+        <v>112.8823323142782</v>
       </c>
       <c r="F24" t="n">
-        <v>105.0785997585476</v>
+        <v>53.74599149110657</v>
       </c>
       <c r="G24" t="n">
-        <v>53.74599149110652</v>
+        <v>53.74599149110657</v>
       </c>
       <c r="H24" t="n">
-        <v>27.77507304862925</v>
+        <v>27.77507304862928</v>
       </c>
       <c r="I24" t="n">
         <v>24.87366105572914</v>
@@ -6071,22 +6071,22 @@
         <v>24.87366105572914</v>
       </c>
       <c r="K24" t="n">
-        <v>150.2312211135665</v>
+        <v>24.87366105572914</v>
       </c>
       <c r="L24" t="n">
-        <v>380.1943269819157</v>
+        <v>196.6630499598477</v>
       </c>
       <c r="M24" t="n">
-        <v>688.0058825465637</v>
+        <v>504.4746055244958</v>
       </c>
       <c r="N24" t="n">
-        <v>995.8174381112118</v>
+        <v>812.2861610891439</v>
       </c>
       <c r="O24" t="n">
-        <v>1174.288494273128</v>
+        <v>1061.039575173106</v>
       </c>
       <c r="P24" t="n">
-        <v>1174.288494273128</v>
+        <v>1243.683052786457</v>
       </c>
       <c r="Q24" t="n">
         <v>1243.683052786457</v>
@@ -6101,19 +6101,19 @@
         <v>1029.104235598608</v>
       </c>
       <c r="U24" t="n">
-        <v>940.0535784103802</v>
+        <v>888.2788344849403</v>
       </c>
       <c r="V24" t="n">
-        <v>792.2996873285809</v>
+        <v>740.5249434031409</v>
       </c>
       <c r="W24" t="n">
-        <v>625.4605477503227</v>
+        <v>573.6858038248827</v>
       </c>
       <c r="X24" t="n">
-        <v>505.0072646947333</v>
+        <v>453.2325207692932</v>
       </c>
       <c r="Y24" t="n">
-        <v>384.6451830797228</v>
+        <v>332.8704391542827</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>289.1366558765016</v>
+        <v>24.87366105572914</v>
       </c>
       <c r="C25" t="n">
-        <v>207.5986900985381</v>
+        <v>24.87366105572914</v>
       </c>
       <c r="D25" t="n">
-        <v>144.8802678361458</v>
+        <v>24.87366105572914</v>
       </c>
       <c r="E25" t="n">
-        <v>84.36539140369609</v>
+        <v>24.87366105572914</v>
       </c>
       <c r="F25" t="n">
         <v>24.87366105572914</v>
@@ -6150,16 +6150,16 @@
         <v>24.87366105572914</v>
       </c>
       <c r="K25" t="n">
-        <v>88.48585677676465</v>
+        <v>88.48585677676462</v>
       </c>
       <c r="L25" t="n">
-        <v>201.4589744131372</v>
+        <v>201.4589744131371</v>
       </c>
       <c r="M25" t="n">
-        <v>326.3060052340189</v>
+        <v>326.3060052340188</v>
       </c>
       <c r="N25" t="n">
-        <v>455.6558485181147</v>
+        <v>455.6558485181146</v>
       </c>
       <c r="O25" t="n">
         <v>565.6541177816734</v>
@@ -6177,22 +6177,22 @@
         <v>648.9774538920597</v>
       </c>
       <c r="T25" t="n">
-        <v>506.1276009124258</v>
+        <v>506.1276009124257</v>
       </c>
       <c r="U25" t="n">
-        <v>506.1276009124258</v>
+        <v>506.1276009124257</v>
       </c>
       <c r="V25" t="n">
-        <v>491.1556087635188</v>
+        <v>338.8413298564822</v>
       </c>
       <c r="W25" t="n">
-        <v>289.1366558765016</v>
+        <v>158.2680230493159</v>
       </c>
       <c r="X25" t="n">
-        <v>289.1366558765016</v>
+        <v>158.2680230493159</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.1366558765016</v>
+        <v>24.87366105572914</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>24.87366105572914</v>
+        <v>201.7860621934156</v>
       </c>
       <c r="C26" t="n">
-        <v>24.87366105572914</v>
+        <v>201.7860621934156</v>
       </c>
       <c r="D26" t="n">
-        <v>24.87366105572914</v>
+        <v>201.7860621934156</v>
       </c>
       <c r="E26" t="n">
-        <v>24.87366105572914</v>
+        <v>201.7860621934156</v>
       </c>
       <c r="F26" t="n">
         <v>24.87366105572914</v>
@@ -6226,25 +6226,25 @@
         <v>24.87366105572914</v>
       </c>
       <c r="J26" t="n">
-        <v>98.70285722332228</v>
+        <v>98.70285722332225</v>
       </c>
       <c r="K26" t="n">
         <v>287.3768557629041</v>
       </c>
       <c r="L26" t="n">
-        <v>467.4527073475628</v>
+        <v>467.4527073475626</v>
       </c>
       <c r="M26" t="n">
-        <v>684.4283346104669</v>
+        <v>770.0873272391264</v>
       </c>
       <c r="N26" t="n">
-        <v>890.2828568177063</v>
+        <v>975.9418494463657</v>
       </c>
       <c r="O26" t="n">
-        <v>1078.254797088146</v>
+        <v>1125.136799589014</v>
       </c>
       <c r="P26" t="n">
-        <v>1167.914852380197</v>
+        <v>1214.796854881065</v>
       </c>
       <c r="Q26" t="n">
         <v>1243.683052786457</v>
@@ -6262,16 +6262,16 @@
         <v>1055.965156250591</v>
       </c>
       <c r="V26" t="n">
-        <v>879.0527551129046</v>
+        <v>1055.965156250591</v>
       </c>
       <c r="W26" t="n">
-        <v>613.6823169927338</v>
+        <v>790.5947181304205</v>
       </c>
       <c r="X26" t="n">
-        <v>327.6147758815974</v>
+        <v>504.527177019284</v>
       </c>
       <c r="Y26" t="n">
-        <v>24.87366105572914</v>
+        <v>201.7860621934156</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>372.5066023397476</v>
+        <v>384.645183079723</v>
       </c>
       <c r="C27" t="n">
-        <v>285.451790208564</v>
+        <v>297.5903709485394</v>
       </c>
       <c r="D27" t="n">
-        <v>223.9155976972561</v>
+        <v>236.0541784372315</v>
       </c>
       <c r="E27" t="n">
-        <v>152.076359841744</v>
+        <v>164.2149405817193</v>
       </c>
       <c r="F27" t="n">
-        <v>92.9400190185724</v>
+        <v>105.0785997585477</v>
       </c>
       <c r="G27" t="n">
-        <v>50.84457949820641</v>
+        <v>53.74599149110657</v>
       </c>
       <c r="H27" t="n">
-        <v>24.87366105572914</v>
+        <v>27.77507304862928</v>
       </c>
       <c r="I27" t="n">
         <v>24.87366105572914</v>
@@ -6308,22 +6308,22 @@
         <v>24.87366105572914</v>
       </c>
       <c r="K27" t="n">
-        <v>24.87366105572914</v>
+        <v>150.2312211135665</v>
       </c>
       <c r="L27" t="n">
-        <v>196.6630499598477</v>
+        <v>380.1943269819157</v>
       </c>
       <c r="M27" t="n">
-        <v>504.4746055244958</v>
+        <v>435.0800470111666</v>
       </c>
       <c r="N27" t="n">
-        <v>812.2861610891439</v>
+        <v>742.8916025758147</v>
       </c>
       <c r="O27" t="n">
-        <v>1061.039575173106</v>
+        <v>991.645016659777</v>
       </c>
       <c r="P27" t="n">
-        <v>1243.683052786457</v>
+        <v>1174.288494273128</v>
       </c>
       <c r="Q27" t="n">
         <v>1243.683052786457</v>
@@ -6338,19 +6338,19 @@
         <v>1029.104235598608</v>
       </c>
       <c r="U27" t="n">
-        <v>888.2788344849403</v>
+        <v>1020.870698280505</v>
       </c>
       <c r="V27" t="n">
-        <v>740.5249434031409</v>
+        <v>873.1168071987058</v>
       </c>
       <c r="W27" t="n">
-        <v>573.6858038248827</v>
+        <v>706.2776676204476</v>
       </c>
       <c r="X27" t="n">
-        <v>573.6858038248827</v>
+        <v>585.8243845648582</v>
       </c>
       <c r="Y27" t="n">
-        <v>453.3237222098722</v>
+        <v>465.4623029498476</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.856151153831</v>
+        <v>144.8802678361459</v>
       </c>
       <c r="C28" t="n">
-        <v>161.856151153831</v>
+        <v>144.8802678361459</v>
       </c>
       <c r="D28" t="n">
-        <v>161.856151153831</v>
+        <v>144.8802678361459</v>
       </c>
       <c r="E28" t="n">
-        <v>101.3412747213813</v>
+        <v>84.36539140369612</v>
       </c>
       <c r="F28" t="n">
-        <v>101.3412747213813</v>
+        <v>24.87366105572914</v>
       </c>
       <c r="G28" t="n">
-        <v>101.3412747213813</v>
+        <v>24.87366105572914</v>
       </c>
       <c r="H28" t="n">
         <v>24.87366105572914</v>
@@ -6387,16 +6387,16 @@
         <v>24.87366105572914</v>
       </c>
       <c r="K28" t="n">
-        <v>88.48585677676465</v>
+        <v>88.48585677676462</v>
       </c>
       <c r="L28" t="n">
-        <v>201.4589744131372</v>
+        <v>201.4589744131371</v>
       </c>
       <c r="M28" t="n">
-        <v>326.3060052340189</v>
+        <v>326.3060052340188</v>
       </c>
       <c r="N28" t="n">
-        <v>455.6558485181147</v>
+        <v>455.6558485181146</v>
       </c>
       <c r="O28" t="n">
         <v>565.6541177816734</v>
@@ -6414,22 +6414,22 @@
         <v>557.2914373276905</v>
       </c>
       <c r="T28" t="n">
-        <v>557.2914373276905</v>
+        <v>487.490554471237</v>
       </c>
       <c r="U28" t="n">
-        <v>557.2914373276905</v>
+        <v>487.490554471237</v>
       </c>
       <c r="V28" t="n">
-        <v>458.1253517211445</v>
+        <v>487.490554471237</v>
       </c>
       <c r="W28" t="n">
-        <v>256.1063988341273</v>
+        <v>285.4716015842198</v>
       </c>
       <c r="X28" t="n">
-        <v>256.1063988341273</v>
+        <v>144.8802678361459</v>
       </c>
       <c r="Y28" t="n">
-        <v>256.1063988341273</v>
+        <v>144.8802678361459</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24.87366105572914</v>
+        <v>120.9902796485583</v>
       </c>
       <c r="C29" t="n">
         <v>24.87366105572914</v>
@@ -6463,19 +6463,19 @@
         <v>24.87366105572914</v>
       </c>
       <c r="J29" t="n">
-        <v>98.70285722332228</v>
+        <v>98.70285722332225</v>
       </c>
       <c r="K29" t="n">
         <v>201.7178631342446</v>
       </c>
       <c r="L29" t="n">
-        <v>381.7937147189032</v>
+        <v>467.4527073475628</v>
       </c>
       <c r="M29" t="n">
-        <v>637.5463321095988</v>
+        <v>723.2053247382585</v>
       </c>
       <c r="N29" t="n">
-        <v>843.4008543168381</v>
+        <v>929.0598469454978</v>
       </c>
       <c r="O29" t="n">
         <v>1078.254797088146</v>
@@ -6493,22 +6493,22 @@
         <v>1119.949886515951</v>
       </c>
       <c r="T29" t="n">
-        <v>981.9987606718219</v>
+        <v>1119.949886515951</v>
       </c>
       <c r="U29" t="n">
-        <v>981.9987606718219</v>
+        <v>953.4636057791904</v>
       </c>
       <c r="V29" t="n">
-        <v>981.9987606718219</v>
+        <v>709.7989355855632</v>
       </c>
       <c r="W29" t="n">
-        <v>912.8839399069122</v>
+        <v>709.7989355855632</v>
       </c>
       <c r="X29" t="n">
-        <v>626.8163987957759</v>
+        <v>423.7313944744267</v>
       </c>
       <c r="Y29" t="n">
-        <v>324.0752839699076</v>
+        <v>120.9902796485583</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>384.6451830797228</v>
+        <v>338.0724466835459</v>
       </c>
       <c r="C30" t="n">
-        <v>297.5903709485392</v>
+        <v>251.0176345523622</v>
       </c>
       <c r="D30" t="n">
-        <v>236.0541784372313</v>
+        <v>189.4814420410544</v>
       </c>
       <c r="E30" t="n">
-        <v>164.2149405817192</v>
+        <v>117.6422041855422</v>
       </c>
       <c r="F30" t="n">
-        <v>105.0785997585476</v>
+        <v>58.50586336237057</v>
       </c>
       <c r="G30" t="n">
-        <v>53.74599149110652</v>
+        <v>27.77507304862928</v>
       </c>
       <c r="H30" t="n">
-        <v>27.77507304862925</v>
+        <v>27.77507304862928</v>
       </c>
       <c r="I30" t="n">
         <v>24.87366105572914</v>
@@ -6551,16 +6551,16 @@
         <v>380.1943269819157</v>
       </c>
       <c r="M30" t="n">
-        <v>504.4746055244958</v>
+        <v>435.0800470111666</v>
       </c>
       <c r="N30" t="n">
-        <v>812.2861610891439</v>
+        <v>742.8916025758147</v>
       </c>
       <c r="O30" t="n">
-        <v>1061.039575173106</v>
+        <v>991.645016659777</v>
       </c>
       <c r="P30" t="n">
-        <v>1243.683052786457</v>
+        <v>1174.288494273128</v>
       </c>
       <c r="Q30" t="n">
         <v>1243.683052786457</v>
@@ -6569,25 +6569,25 @@
         <v>1229.911740489286</v>
       </c>
       <c r="S30" t="n">
-        <v>1143.892613089898</v>
+        <v>1229.911740489286</v>
       </c>
       <c r="T30" t="n">
-        <v>1029.104235598608</v>
+        <v>1115.123362997996</v>
       </c>
       <c r="U30" t="n">
-        <v>888.2788344849403</v>
+        <v>974.2979618843281</v>
       </c>
       <c r="V30" t="n">
-        <v>740.5249434031409</v>
+        <v>826.5440708025287</v>
       </c>
       <c r="W30" t="n">
-        <v>625.4605477503227</v>
+        <v>659.7049312242705</v>
       </c>
       <c r="X30" t="n">
-        <v>505.0072646947333</v>
+        <v>539.2516481686811</v>
       </c>
       <c r="Y30" t="n">
-        <v>384.6451830797228</v>
+        <v>418.8895665536705</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.3412747213813</v>
+        <v>24.87366105572914</v>
       </c>
       <c r="C31" t="n">
-        <v>101.3412747213813</v>
+        <v>24.87366105572914</v>
       </c>
       <c r="D31" t="n">
-        <v>101.3412747213813</v>
+        <v>24.87366105572914</v>
       </c>
       <c r="E31" t="n">
-        <v>101.3412747213813</v>
+        <v>24.87366105572914</v>
       </c>
       <c r="F31" t="n">
-        <v>101.3412747213813</v>
+        <v>24.87366105572914</v>
       </c>
       <c r="G31" t="n">
-        <v>101.3412747213813</v>
+        <v>24.87366105572914</v>
       </c>
       <c r="H31" t="n">
         <v>24.87366105572914</v>
@@ -6624,16 +6624,16 @@
         <v>24.87366105572914</v>
       </c>
       <c r="K31" t="n">
-        <v>88.48585677676465</v>
+        <v>88.48585677676462</v>
       </c>
       <c r="L31" t="n">
-        <v>201.4589744131372</v>
+        <v>201.4589744131371</v>
       </c>
       <c r="M31" t="n">
-        <v>326.3060052340189</v>
+        <v>326.3060052340188</v>
       </c>
       <c r="N31" t="n">
-        <v>455.6558485181147</v>
+        <v>455.6558485181146</v>
       </c>
       <c r="O31" t="n">
         <v>565.6541177816734</v>
@@ -6645,28 +6645,28 @@
         <v>648.9774538920597</v>
       </c>
       <c r="R31" t="n">
-        <v>648.9774538920597</v>
+        <v>557.2914373276905</v>
       </c>
       <c r="S31" t="n">
-        <v>510.0962790854654</v>
+        <v>557.2914373276905</v>
       </c>
       <c r="T31" t="n">
-        <v>505.1731512225873</v>
+        <v>557.2914373276905</v>
       </c>
       <c r="U31" t="n">
-        <v>303.3602276083985</v>
+        <v>360.2869759363331</v>
       </c>
       <c r="V31" t="n">
-        <v>303.3602276083985</v>
+        <v>360.2869759363331</v>
       </c>
       <c r="W31" t="n">
-        <v>101.3412747213813</v>
+        <v>158.2680230493159</v>
       </c>
       <c r="X31" t="n">
-        <v>101.3412747213813</v>
+        <v>158.2680230493159</v>
       </c>
       <c r="Y31" t="n">
-        <v>101.3412747213813</v>
+        <v>24.87366105572914</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>548.5899898068187</v>
+        <v>564.9620081227698</v>
       </c>
       <c r="C32" t="n">
-        <v>273.9638898208891</v>
+        <v>290.3359081368401</v>
       </c>
       <c r="D32" t="n">
-        <v>273.9638898208891</v>
+        <v>290.3359081368401</v>
       </c>
       <c r="E32" t="n">
         <v>273.9638898208891</v>
@@ -6706,16 +6706,16 @@
         <v>209.0407979613379</v>
       </c>
       <c r="L32" t="n">
-        <v>481.5757718030844</v>
+        <v>389.1166495459965</v>
       </c>
       <c r="M32" t="n">
-        <v>698.5513990659886</v>
+        <v>650.0863327859927</v>
       </c>
       <c r="N32" t="n">
-        <v>904.4059212732279</v>
+        <v>948.3999772503198</v>
       </c>
       <c r="O32" t="n">
-        <v>1053.600871415876</v>
+        <v>1097.594927392968</v>
       </c>
       <c r="P32" t="n">
         <v>1187.254982685019</v>
@@ -6724,28 +6724,28 @@
         <v>1269.823312719707</v>
       </c>
       <c r="R32" t="n">
-        <v>1212.776782258886</v>
+        <v>1269.823312719707</v>
       </c>
       <c r="S32" t="n">
-        <v>1212.776782258886</v>
+        <v>1153.028346253739</v>
       </c>
       <c r="T32" t="n">
-        <v>1212.776782258886</v>
+        <v>1153.028346253739</v>
       </c>
       <c r="U32" t="n">
-        <v>1212.776782258886</v>
+        <v>1153.028346253739</v>
       </c>
       <c r="V32" t="n">
-        <v>1212.776782258886</v>
+        <v>1153.028346253739</v>
       </c>
       <c r="W32" t="n">
-        <v>1212.776782258886</v>
+        <v>1153.028346253739</v>
       </c>
       <c r="X32" t="n">
-        <v>1136.656327937788</v>
+        <v>1153.028346253739</v>
       </c>
       <c r="Y32" t="n">
-        <v>840.8534129164585</v>
+        <v>857.2254312324096</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>340.6373774582561</v>
+        <v>340.637377458256</v>
       </c>
       <c r="C33" t="n">
-        <v>260.5207651316111</v>
+        <v>260.520765131611</v>
       </c>
       <c r="D33" t="n">
         <v>205.9227724248418</v>
       </c>
       <c r="E33" t="n">
-        <v>141.0217343738683</v>
+        <v>141.0217343738682</v>
       </c>
       <c r="F33" t="n">
-        <v>88.82359335523527</v>
+        <v>88.82359335523522</v>
       </c>
       <c r="G33" t="n">
         <v>44.42918489233281</v>
@@ -6824,7 +6824,7 @@
         <v>527.9401793343139</v>
       </c>
       <c r="Y33" t="n">
-        <v>414.5162975238421</v>
+        <v>414.516297523842</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>217.0088486558837</v>
+        <v>209.3531313135838</v>
       </c>
       <c r="C34" t="n">
-        <v>217.0088486558837</v>
+        <v>134.753365340159</v>
       </c>
       <c r="D34" t="n">
-        <v>217.0088486558837</v>
+        <v>78.97314288230525</v>
       </c>
       <c r="E34" t="n">
-        <v>163.4321720279726</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="F34" t="n">
-        <v>163.4321720279726</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="G34" t="n">
-        <v>88.08073104461748</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="H34" t="n">
-        <v>88.08073104461748</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="I34" t="n">
         <v>25.39646625439415</v>
@@ -6885,25 +6885,25 @@
         <v>612.3868836714739</v>
       </c>
       <c r="S34" t="n">
-        <v>480.4439086694183</v>
+        <v>612.3868836714739</v>
       </c>
       <c r="T34" t="n">
-        <v>350.661982599419</v>
+        <v>612.3868836714739</v>
       </c>
       <c r="U34" t="n">
-        <v>350.661982599419</v>
+        <v>612.3868836714739</v>
       </c>
       <c r="V34" t="n">
-        <v>350.661982599419</v>
+        <v>452.0388124200691</v>
       </c>
       <c r="W34" t="n">
-        <v>350.661982599419</v>
+        <v>296.6651791893415</v>
       </c>
       <c r="X34" t="n">
-        <v>217.0088486558837</v>
+        <v>296.6651791893415</v>
       </c>
       <c r="Y34" t="n">
-        <v>217.0088486558837</v>
+        <v>296.6651791893415</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>495.9401918502169</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>495.9401918502169</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>495.9401918502169</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>252.4914152061168</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6982,7 +6982,7 @@
         <v>739.3889684943169</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>495.9401918502169</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>255.279574531728</v>
+        <v>182.7389785283449</v>
       </c>
       <c r="C36" t="n">
-        <v>255.279574531728</v>
+        <v>98.58557839006141</v>
       </c>
       <c r="D36" t="n">
-        <v>196.6447940133203</v>
+        <v>98.58557839006141</v>
       </c>
       <c r="E36" t="n">
-        <v>127.7069681507083</v>
+        <v>98.58557839006141</v>
       </c>
       <c r="F36" t="n">
-        <v>71.47203932043678</v>
+        <v>42.35064955978989</v>
       </c>
       <c r="G36" t="n">
-        <v>23.04084304589581</v>
+        <v>42.35064955978989</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7022,13 +7022,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7043,25 +7043,25 @@
         <v>953.1872552063654</v>
       </c>
       <c r="S36" t="n">
-        <v>870.0695397998778</v>
+        <v>953.1872552063654</v>
       </c>
       <c r="T36" t="n">
-        <v>870.0695397998778</v>
+        <v>841.300289707975</v>
       </c>
       <c r="U36" t="n">
-        <v>732.1455506791104</v>
+        <v>703.3763005872077</v>
       </c>
       <c r="V36" t="n">
-        <v>732.1455506791104</v>
+        <v>659.6049546757273</v>
       </c>
       <c r="W36" t="n">
-        <v>568.2078230937523</v>
+        <v>495.6672270903691</v>
       </c>
       <c r="X36" t="n">
-        <v>450.655952031063</v>
+        <v>378.1153560276798</v>
       </c>
       <c r="Y36" t="n">
-        <v>333.1952824089526</v>
+        <v>260.6546864055694</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>722.8168466558531</v>
+        <v>456.0261925646762</v>
       </c>
       <c r="C37" t="n">
-        <v>644.1802928707897</v>
+        <v>456.0261925646762</v>
       </c>
       <c r="D37" t="n">
-        <v>584.3632826012974</v>
+        <v>456.0261925646762</v>
       </c>
       <c r="E37" t="n">
-        <v>526.7498181617478</v>
+        <v>456.0261925646762</v>
       </c>
       <c r="F37" t="n">
-        <v>470.159499806681</v>
+        <v>399.4358742096094</v>
       </c>
       <c r="G37" t="n">
-        <v>390.7712710116874</v>
+        <v>320.0476454146158</v>
       </c>
       <c r="H37" t="n">
-        <v>390.7712710116874</v>
+        <v>320.0476454146158</v>
       </c>
       <c r="I37" t="n">
-        <v>324.0502184098256</v>
+        <v>320.0476454146158</v>
       </c>
       <c r="J37" t="n">
         <v>320.0476454146158</v>
@@ -7128,19 +7128,19 @@
         <v>824.1087145239024</v>
       </c>
       <c r="U37" t="n">
-        <v>824.1087145239024</v>
+        <v>625.1972029026138</v>
       </c>
       <c r="V37" t="n">
-        <v>824.1087145239024</v>
+        <v>625.1972029026138</v>
       </c>
       <c r="W37" t="n">
-        <v>824.1087145239024</v>
+        <v>625.1972029026138</v>
       </c>
       <c r="X37" t="n">
-        <v>814.1656823432493</v>
+        <v>487.5072811474399</v>
       </c>
       <c r="Y37" t="n">
-        <v>814.1656823432493</v>
+        <v>487.5072811474399</v>
       </c>
     </row>
     <row r="38">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>308.2055489668519</v>
+        <v>640.3869473532405</v>
       </c>
       <c r="C39" t="n">
-        <v>153.935750422179</v>
+        <v>486.1171488085677</v>
       </c>
       <c r="D39" t="n">
-        <v>153.935750422179</v>
+        <v>357.3659698837705</v>
       </c>
       <c r="E39" t="n">
-        <v>145.6324703468736</v>
+        <v>357.3659698837705</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>231.0146426471096</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>112.4670479661793</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7256,16 +7256,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7280,25 +7280,25 @@
         <v>883.0708567999761</v>
       </c>
       <c r="S39" t="n">
-        <v>729.8367429870991</v>
+        <v>883.0708567999761</v>
       </c>
       <c r="T39" t="n">
-        <v>729.8367429870991</v>
+        <v>883.0708567999761</v>
       </c>
       <c r="U39" t="n">
-        <v>729.8367429870991</v>
+        <v>883.0708567999761</v>
       </c>
       <c r="V39" t="n">
-        <v>729.8367429870991</v>
+        <v>883.0708567999761</v>
       </c>
       <c r="W39" t="n">
-        <v>495.7826169953516</v>
+        <v>883.0708567999761</v>
       </c>
       <c r="X39" t="n">
-        <v>495.7826169953516</v>
+        <v>883.0708567999761</v>
       </c>
       <c r="Y39" t="n">
-        <v>308.2055489668519</v>
+        <v>695.4937887714764</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>42.22080933515841</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>42.22080933515841</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>42.22080933515841</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>42.22080933515841</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>42.22080933515841</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>42.22080933515841</v>
       </c>
       <c r="H40" t="n">
         <v>19.28114311021272</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>74.12512902038085</v>
+        <v>83.32899920707814</v>
       </c>
       <c r="C41" t="n">
-        <v>74.12512902038085</v>
+        <v>83.32899920707814</v>
       </c>
       <c r="D41" t="n">
-        <v>74.12512902038085</v>
+        <v>83.32899920707814</v>
       </c>
       <c r="E41" t="n">
-        <v>74.12512902038085</v>
+        <v>83.32899920707814</v>
       </c>
       <c r="F41" t="n">
-        <v>74.12512902038085</v>
+        <v>83.32899920707814</v>
       </c>
       <c r="G41" t="n">
-        <v>74.12512902038085</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="H41" t="n">
-        <v>74.12512902038085</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="I41" t="n">
         <v>6.115323144181421</v>
@@ -7414,19 +7414,19 @@
         <v>6.115323144181421</v>
       </c>
       <c r="K41" t="n">
-        <v>6.115323144181421</v>
+        <v>81.7924470534265</v>
       </c>
       <c r="L41" t="n">
-        <v>6.115323144181421</v>
+        <v>157.4695709626716</v>
       </c>
       <c r="M41" t="n">
-        <v>78.73478548133575</v>
+        <v>233.1466948719167</v>
       </c>
       <c r="N41" t="n">
-        <v>154.4119093905808</v>
+        <v>305.766157209071</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0890332998259</v>
+        <v>305.766157209071</v>
       </c>
       <c r="P41" t="n">
         <v>305.766157209071</v>
@@ -7435,28 +7435,28 @@
         <v>305.766157209071</v>
       </c>
       <c r="R41" t="n">
-        <v>228.5524811461743</v>
+        <v>305.766157209071</v>
       </c>
       <c r="S41" t="n">
         <v>228.5524811461743</v>
       </c>
       <c r="T41" t="n">
-        <v>228.5524811461743</v>
+        <v>151.3388050832776</v>
       </c>
       <c r="U41" t="n">
-        <v>228.5524811461743</v>
+        <v>83.32899920707814</v>
       </c>
       <c r="V41" t="n">
-        <v>228.5524811461743</v>
+        <v>83.32899920707814</v>
       </c>
       <c r="W41" t="n">
-        <v>151.3388050832776</v>
+        <v>83.32899920707814</v>
       </c>
       <c r="X41" t="n">
-        <v>74.12512902038085</v>
+        <v>83.32899920707814</v>
       </c>
       <c r="Y41" t="n">
-        <v>74.12512902038085</v>
+        <v>83.32899920707814</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>151.3388050832776</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="C42" t="n">
-        <v>151.3388050832776</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="D42" t="n">
-        <v>151.3388050832776</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="E42" t="n">
-        <v>151.3388050832776</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="F42" t="n">
-        <v>151.3388050832776</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="G42" t="n">
-        <v>74.12512902038085</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="H42" t="n">
-        <v>74.12512902038085</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="I42" t="n">
         <v>6.115323144181421</v>
@@ -7496,10 +7496,10 @@
         <v>81.7924470534265</v>
       </c>
       <c r="L42" t="n">
+        <v>81.7924470534265</v>
+      </c>
+      <c r="M42" t="n">
         <v>157.4695709626716</v>
-      </c>
-      <c r="M42" t="n">
-        <v>230.0890332998259</v>
       </c>
       <c r="N42" t="n">
         <v>230.0890332998259</v>
@@ -7517,25 +7517,25 @@
         <v>305.766157209071</v>
       </c>
       <c r="S42" t="n">
-        <v>305.766157209071</v>
+        <v>228.5524811461743</v>
       </c>
       <c r="T42" t="n">
-        <v>305.766157209071</v>
+        <v>228.5524811461743</v>
       </c>
       <c r="U42" t="n">
-        <v>305.766157209071</v>
+        <v>151.3388050832776</v>
       </c>
       <c r="V42" t="n">
-        <v>305.766157209071</v>
+        <v>83.32899920707814</v>
       </c>
       <c r="W42" t="n">
-        <v>228.5524811461743</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="X42" t="n">
-        <v>228.5524811461743</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="Y42" t="n">
-        <v>228.5524811461743</v>
+        <v>6.115323144181421</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>124.4741319345589</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="C43" t="n">
-        <v>124.4741319345589</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="D43" t="n">
-        <v>124.4741319345589</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="E43" t="n">
-        <v>124.4741319345589</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="F43" t="n">
-        <v>124.4741319345589</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="G43" t="n">
-        <v>124.4741319345589</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="H43" t="n">
-        <v>124.4741319345589</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="I43" t="n">
-        <v>124.4741319345589</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="J43" t="n">
-        <v>124.4741319345589</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="K43" t="n">
-        <v>124.4741319345589</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="L43" t="n">
-        <v>161.6790491646713</v>
+        <v>43.32024037429376</v>
       </c>
       <c r="M43" t="n">
-        <v>210.7578795792928</v>
+        <v>92.3990707889153</v>
       </c>
       <c r="N43" t="n">
-        <v>264.3395224571285</v>
+        <v>145.9807136667509</v>
       </c>
       <c r="O43" t="n">
-        <v>298.5695913144271</v>
+        <v>180.2107825240496</v>
       </c>
       <c r="P43" t="n">
-        <v>305.766157209071</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="Q43" t="n">
-        <v>305.766157209071</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="R43" t="n">
-        <v>305.766157209071</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="S43" t="n">
-        <v>305.766157209071</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="T43" t="n">
-        <v>305.766157209071</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="U43" t="n">
-        <v>305.766157209071</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="V43" t="n">
-        <v>305.766157209071</v>
+        <v>187.4073484186935</v>
       </c>
       <c r="W43" t="n">
-        <v>305.766157209071</v>
+        <v>160.5426752699749</v>
       </c>
       <c r="X43" t="n">
-        <v>228.5524811461743</v>
+        <v>160.5426752699749</v>
       </c>
       <c r="Y43" t="n">
-        <v>201.6878079974556</v>
+        <v>83.32899920707814</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>228.5524811461743</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="C44" t="n">
-        <v>228.5524811461743</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="D44" t="n">
-        <v>228.5524811461743</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="E44" t="n">
-        <v>228.5524811461743</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="F44" t="n">
-        <v>228.5524811461743</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="G44" t="n">
-        <v>160.5426752699749</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="H44" t="n">
-        <v>83.32899920707814</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="I44" t="n">
         <v>6.115323144181421</v>
@@ -7651,16 +7651,16 @@
         <v>6.115323144181421</v>
       </c>
       <c r="K44" t="n">
+        <v>6.115323144181421</v>
+      </c>
+      <c r="L44" t="n">
         <v>81.7924470534265</v>
       </c>
-      <c r="L44" t="n">
-        <v>157.4695709626716</v>
-      </c>
       <c r="M44" t="n">
-        <v>233.1466948719167</v>
+        <v>154.4119093905808</v>
       </c>
       <c r="N44" t="n">
-        <v>305.766157209071</v>
+        <v>230.0890332998259</v>
       </c>
       <c r="O44" t="n">
         <v>305.766157209071</v>
@@ -7672,28 +7672,28 @@
         <v>305.766157209071</v>
       </c>
       <c r="R44" t="n">
-        <v>305.766157209071</v>
+        <v>228.5524811461743</v>
       </c>
       <c r="S44" t="n">
-        <v>305.766157209071</v>
+        <v>151.3388050832776</v>
       </c>
       <c r="T44" t="n">
-        <v>305.766157209071</v>
+        <v>74.12512902038085</v>
       </c>
       <c r="U44" t="n">
-        <v>305.766157209071</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="V44" t="n">
-        <v>228.5524811461743</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="W44" t="n">
-        <v>228.5524811461743</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="X44" t="n">
-        <v>228.5524811461743</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="Y44" t="n">
-        <v>228.5524811461743</v>
+        <v>6.115323144181421</v>
       </c>
     </row>
     <row r="45">
@@ -7712,16 +7712,16 @@
         <v>305.766157209071</v>
       </c>
       <c r="E45" t="n">
-        <v>228.5524811461743</v>
+        <v>305.766157209071</v>
       </c>
       <c r="F45" t="n">
-        <v>151.3388050832776</v>
+        <v>237.7563513328716</v>
       </c>
       <c r="G45" t="n">
-        <v>74.12512902038085</v>
+        <v>160.5426752699749</v>
       </c>
       <c r="H45" t="n">
-        <v>6.115323144181421</v>
+        <v>83.32899920707814</v>
       </c>
       <c r="I45" t="n">
         <v>6.115323144181421</v>
@@ -7733,13 +7733,13 @@
         <v>81.7924470534265</v>
       </c>
       <c r="L45" t="n">
+        <v>81.7924470534265</v>
+      </c>
+      <c r="M45" t="n">
         <v>157.4695709626716</v>
       </c>
-      <c r="M45" t="n">
-        <v>233.1466948719167</v>
-      </c>
       <c r="N45" t="n">
-        <v>305.766157209071</v>
+        <v>230.0890332998259</v>
       </c>
       <c r="O45" t="n">
         <v>305.766157209071</v>
@@ -7785,22 +7785,22 @@
         <v>110.1936723557968</v>
       </c>
       <c r="C46" t="n">
-        <v>110.1936723557968</v>
+        <v>32.97999629290004</v>
       </c>
       <c r="D46" t="n">
-        <v>110.1936723557968</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="E46" t="n">
-        <v>110.1936723557968</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="F46" t="n">
-        <v>110.1936723557968</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="G46" t="n">
-        <v>110.1936723557968</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="H46" t="n">
-        <v>32.97999629290004</v>
+        <v>6.115323144181421</v>
       </c>
       <c r="I46" t="n">
         <v>6.115323144181421</v>
@@ -8698,13 +8698,13 @@
         <v>312.207954272255</v>
       </c>
       <c r="M11" t="n">
-        <v>306.7877725295405</v>
+        <v>303.6992254870246</v>
       </c>
       <c r="N11" t="n">
-        <v>302.7660558563428</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>306.5397507239545</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>141.0989175842833</v>
+        <v>214.2829782766267</v>
       </c>
       <c r="L12" t="n">
         <v>214.9959190821419</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>218.5755732242861</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>219.0377837467122</v>
+        <v>145.8537230543687</v>
       </c>
       <c r="P12" t="n">
-        <v>210.415946716598</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8932,16 +8932,16 @@
         <v>296.5313903472483</v>
       </c>
       <c r="L14" t="n">
-        <v>312.207954272255</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>306.7877725295405</v>
+        <v>303.6992254870246</v>
       </c>
       <c r="N14" t="n">
-        <v>302.7660558563428</v>
+        <v>305.8546028988587</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>306.5397507239545</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>141.0989175842833</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -9023,7 +9023,7 @@
         <v>219.0377837467122</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>137.2318860242545</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,10 +9491,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>312.0790150365597</v>
       </c>
       <c r="M24" t="n">
         <v>453.0547971186326</v>
@@ -9731,13 +9731,13 @@
         <v>442.2624752799476</v>
       </c>
       <c r="O24" t="n">
-        <v>322.8700385473899</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>312.0790150365597</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>453.0547971186326</v>
+        <v>197.5741551636859</v>
       </c>
       <c r="N27" t="n">
         <v>442.2624752799476</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>267.6696688135135</v>
+        <v>197.5741551636859</v>
       </c>
       <c r="N30" t="n">
         <v>442.2624752799476</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10670,16 +10670,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5030352242461</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10916,7 +10916,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>296.5313903472483</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>312.207954272255</v>
       </c>
       <c r="M41" t="n">
-        <v>303.6992254870246</v>
+        <v>306.7877725295405</v>
       </c>
       <c r="N41" t="n">
-        <v>305.8546028988587</v>
+        <v>302.7660558563428</v>
       </c>
       <c r="O41" t="n">
-        <v>306.5397507239545</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>307.6745350575373</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11144,13 +11144,13 @@
         <v>214.2829782766267</v>
       </c>
       <c r="L42" t="n">
-        <v>214.9959190821419</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>215.4870261817702</v>
+        <v>218.5755732242861</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>204.6947043430852</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
@@ -11299,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>296.5313903472483</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>312.207954272255</v>
       </c>
       <c r="M44" t="n">
-        <v>306.7877725295405</v>
+        <v>303.6992254870246</v>
       </c>
       <c r="N44" t="n">
-        <v>302.7660558563428</v>
+        <v>305.8546028988587</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>306.5397507239545</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11381,7 +11381,7 @@
         <v>214.2829782766267</v>
       </c>
       <c r="L45" t="n">
-        <v>214.9959190821419</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>218.5755732242861</v>
@@ -11390,7 +11390,7 @@
         <v>204.6947043430852</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>219.0377837467122</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -23345,7 +23345,7 @@
         <v>137.4543663500939</v>
       </c>
       <c r="E12" t="n">
-        <v>71.21284193858838</v>
+        <v>147.6543812408561</v>
       </c>
       <c r="F12" t="n">
         <v>58.63697387657132</v>
@@ -23354,10 +23354,10 @@
         <v>50.91127864639807</v>
       </c>
       <c r="H12" t="n">
-        <v>102.2447450219517</v>
+        <v>25.8032057196839</v>
       </c>
       <c r="I12" t="n">
-        <v>79.40593363687027</v>
+        <v>12.07622581943284</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>161.692471889293</v>
       </c>
       <c r="T12" t="n">
-        <v>122.8443216628394</v>
+        <v>190.1740294802768</v>
       </c>
       <c r="U12" t="n">
         <v>215.95068286643</v>
@@ -23430,16 +23430,16 @@
         <v>135.4303488083864</v>
       </c>
       <c r="G13" t="n">
-        <v>158.000280143914</v>
+        <v>81.5587408416462</v>
       </c>
       <c r="H13" t="n">
         <v>152.2364732928948</v>
       </c>
       <c r="I13" t="n">
-        <v>145.4597757127135</v>
+        <v>69.01823641044572</v>
       </c>
       <c r="J13" t="n">
-        <v>83.36848090212797</v>
+        <v>56.77245448489654</v>
       </c>
       <c r="K13" t="n">
         <v>12.27879261133805</v>
@@ -23469,13 +23469,13 @@
         <v>214.0258988224275</v>
       </c>
       <c r="T13" t="n">
-        <v>141.5133509114689</v>
+        <v>217.9548902137367</v>
       </c>
       <c r="U13" t="n">
-        <v>199.8867908396783</v>
+        <v>276.3283301419461</v>
       </c>
       <c r="V13" t="n">
-        <v>215.5509176920518</v>
+        <v>242.1469441092832</v>
       </c>
       <c r="W13" t="n">
         <v>276.5322991220462</v>
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80.10094513305478</v>
+        <v>156.5424844353225</v>
       </c>
       <c r="C15" t="n">
-        <v>95.3880919563335</v>
+        <v>162.7177997737709</v>
       </c>
       <c r="D15" t="n">
         <v>137.4543663500939</v>
       </c>
       <c r="E15" t="n">
-        <v>147.6543812408561</v>
+        <v>80.3246734234187</v>
       </c>
       <c r="F15" t="n">
         <v>58.63697387657132</v>
       </c>
       <c r="G15" t="n">
-        <v>127.3528179486658</v>
+        <v>50.91127864639807</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2447450219517</v>
+        <v>25.8032057196839</v>
       </c>
       <c r="I15" t="n">
         <v>79.40593363687027</v>
@@ -23642,7 +23642,7 @@
         <v>195.7822859889327</v>
       </c>
       <c r="Y15" t="n">
-        <v>119.2504572604918</v>
+        <v>195.6919965627596</v>
       </c>
     </row>
     <row r="16">
@@ -23670,13 +23670,13 @@
         <v>158.000280143914</v>
       </c>
       <c r="H16" t="n">
-        <v>152.2364732928948</v>
+        <v>75.79493399062702</v>
       </c>
       <c r="I16" t="n">
-        <v>145.4597757127135</v>
+        <v>118.8637492954821</v>
       </c>
       <c r="J16" t="n">
-        <v>83.36848090212797</v>
+        <v>6.926941599860214</v>
       </c>
       <c r="K16" t="n">
         <v>12.27879261133805</v>
@@ -23709,13 +23709,13 @@
         <v>217.9548902137367</v>
       </c>
       <c r="U16" t="n">
-        <v>199.8867908396783</v>
+        <v>276.3283301419461</v>
       </c>
       <c r="V16" t="n">
-        <v>215.5509176920518</v>
+        <v>242.1469441092832</v>
       </c>
       <c r="W16" t="n">
-        <v>200.0907598197784</v>
+        <v>276.5322991220462</v>
       </c>
       <c r="X16" t="n">
         <v>215.7189561744923</v>
@@ -23782,7 +23782,7 @@
         <v>136.7565373185533</v>
       </c>
       <c r="S17" t="n">
-        <v>195.9074889636489</v>
+        <v>195.907488963649</v>
       </c>
       <c r="T17" t="n">
         <v>209.983268941535</v>
@@ -23791,7 +23791,7 @@
         <v>238.2330722852401</v>
       </c>
       <c r="V17" t="n">
-        <v>314.6396778475385</v>
+        <v>314.6396778475386</v>
       </c>
       <c r="W17" t="n">
         <v>336.1283880948166</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>153.4206030272709</v>
+        <v>153.420603027271</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>159.5959183657194</v>
       </c>
       <c r="D18" t="n">
-        <v>134.3324849420424</v>
+        <v>32.39229289334298</v>
       </c>
       <c r="E18" t="n">
-        <v>144.5324998328045</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>131.9566317707875</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>99.12286361390009</v>
       </c>
       <c r="I18" t="n">
-        <v>76.28405222881868</v>
+        <v>76.28405222881871</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>158.5705904812414</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>187.0521480722252</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>212.8288014583784</v>
+        <v>212.8288014583785</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>219.6880065268289</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>238.5824025383232</v>
       </c>
       <c r="X18" t="n">
         <v>192.6604045808811</v>
       </c>
       <c r="Y18" t="n">
-        <v>185.5072439937212</v>
+        <v>192.570115154708</v>
       </c>
     </row>
     <row r="19">
@@ -23892,7 +23892,7 @@
         <v>166.7193995593409</v>
       </c>
       <c r="C19" t="n">
-        <v>154.1342404760314</v>
+        <v>154.1342404760315</v>
       </c>
       <c r="D19" t="n">
         <v>135.502892395616</v>
@@ -23901,7 +23901,7 @@
         <v>133.3213820239728</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>132.3084674003349</v>
       </c>
       <c r="G19" t="n">
         <v>154.8783987358624</v>
@@ -23913,10 +23913,10 @@
         <v>142.3378943046619</v>
       </c>
       <c r="J19" t="n">
-        <v>80.24659949407638</v>
+        <v>80.24659949407641</v>
       </c>
       <c r="K19" t="n">
-        <v>9.156911203286453</v>
+        <v>9.156911203286484</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.04946262909799</v>
+        <v>73.04946262909802</v>
       </c>
       <c r="R19" t="n">
         <v>164.1808107545731</v>
@@ -23943,7 +23943,7 @@
         <v>210.9040174143759</v>
       </c>
       <c r="T19" t="n">
-        <v>214.8330088056851</v>
+        <v>20.05512394376146</v>
       </c>
       <c r="U19" t="n">
         <v>273.2064487338945</v>
@@ -23952,7 +23952,7 @@
         <v>239.0250627012316</v>
       </c>
       <c r="W19" t="n">
-        <v>210.9410002524057</v>
+        <v>273.4104177139947</v>
       </c>
       <c r="X19" t="n">
         <v>212.5970747664408</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>365.624841107362</v>
+        <v>365.6248411073621</v>
       </c>
       <c r="C20" t="n">
         <v>348.1638912148891</v>
       </c>
       <c r="D20" t="n">
-        <v>337.5740410645644</v>
+        <v>337.5740410645645</v>
       </c>
       <c r="E20" t="n">
-        <v>345.9028728869885</v>
+        <v>285.2961012577325</v>
       </c>
       <c r="F20" t="n">
         <v>148.7527563079339</v>
@@ -23986,10 +23986,10 @@
         <v>157.1794480813575</v>
       </c>
       <c r="H20" t="n">
-        <v>81.35151268198956</v>
+        <v>81.35151268198962</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>193.3668890142874</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>132.7601173850312</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>191.9110690301268</v>
+        <v>191.9110690301269</v>
       </c>
       <c r="T20" t="n">
         <v>205.9868490080129</v>
@@ -24034,7 +24034,7 @@
         <v>332.1319681612945</v>
       </c>
       <c r="X20" t="n">
-        <v>352.6221001223505</v>
+        <v>352.6221001223506</v>
       </c>
       <c r="Y20" t="n">
         <v>369.1289380999351</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>149.4241830937489</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>155.5994984321973</v>
       </c>
       <c r="D21" t="n">
         <v>130.3360650085203</v>
       </c>
       <c r="E21" t="n">
-        <v>140.5360798992824</v>
+        <v>140.5360798992825</v>
       </c>
       <c r="F21" t="n">
-        <v>127.9602118372654</v>
+        <v>55.02526048742736</v>
       </c>
       <c r="G21" t="n">
-        <v>101.753608329965</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>95.12644368037796</v>
+        <v>95.12644368037799</v>
       </c>
       <c r="I21" t="n">
-        <v>72.28763229529658</v>
+        <v>72.2876322952966</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.04883359652463</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>154.5741705477193</v>
@@ -24104,19 +24104,19 @@
         <v>183.0557281387031</v>
       </c>
       <c r="U21" t="n">
-        <v>208.8323815248563</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>215.6915865933068</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>188.663984647359</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>188.5736952211859</v>
       </c>
     </row>
     <row r="22">
@@ -24129,16 +24129,16 @@
         <v>162.7229796258188</v>
       </c>
       <c r="C22" t="n">
-        <v>150.1378205425093</v>
+        <v>150.1378205425094</v>
       </c>
       <c r="D22" t="n">
         <v>131.5064724620939</v>
       </c>
       <c r="E22" t="n">
-        <v>123.5632761772204</v>
+        <v>129.3249620904507</v>
       </c>
       <c r="F22" t="n">
-        <v>128.3120474668127</v>
+        <v>128.3120474668128</v>
       </c>
       <c r="G22" t="n">
         <v>150.8819788023403</v>
@@ -24150,10 +24150,10 @@
         <v>138.3414743711398</v>
       </c>
       <c r="J22" t="n">
-        <v>76.25017956055427</v>
+        <v>76.2501795605543</v>
       </c>
       <c r="K22" t="n">
-        <v>5.16049126976435</v>
+        <v>5.160491269764378</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.05304269557588</v>
+        <v>69.05304269557591</v>
       </c>
       <c r="R22" t="n">
-        <v>160.184390821051</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>206.9075974808538</v>
       </c>
       <c r="T22" t="n">
-        <v>210.836588872163</v>
+        <v>156.6586389470653</v>
       </c>
       <c r="U22" t="n">
         <v>269.2100288003724</v>
@@ -24192,7 +24192,7 @@
         <v>269.4139977804725</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>208.6006548329187</v>
       </c>
       <c r="Y22" t="n">
         <v>201.4756527959763</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>296.2096066850366</v>
+        <v>157.7938220130009</v>
       </c>
       <c r="C23" t="n">
-        <v>207.442721687344</v>
+        <v>278.7486567925636</v>
       </c>
       <c r="D23" t="n">
         <v>268.158806642239</v>
       </c>
       <c r="E23" t="n">
-        <v>295.4061350938178</v>
+        <v>295.4061350938179</v>
       </c>
       <c r="F23" t="n">
-        <v>9.431047566653206</v>
+        <v>9.431047566653262</v>
       </c>
       <c r="G23" t="n">
-        <v>17.85773934007682</v>
+        <v>17.85773934007688</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>252.9505671373232</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>63.34488296270571</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>122.4958346078014</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>164.8214179293925</v>
+        <v>164.8214179293926</v>
       </c>
       <c r="V23" t="n">
-        <v>241.2280234916909</v>
+        <v>241.228023491691</v>
       </c>
       <c r="W23" t="n">
-        <v>262.716733738969</v>
+        <v>262.7167337389691</v>
       </c>
       <c r="X23" t="n">
-        <v>283.206865700025</v>
+        <v>283.2068657000251</v>
       </c>
       <c r="Y23" t="n">
-        <v>299.7137036776096</v>
+        <v>299.7137036776097</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>80.00894867142337</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>80.44666297284263</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>50.81928218476669</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>51.25699648618549</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.30774520349333</v>
+        <v>93.30774520349335</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>80.72258612018389</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>62.09123803976841</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>59.90972766812523</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>58.8968130444873</v>
       </c>
       <c r="G25" t="n">
-        <v>81.46674438001479</v>
+        <v>81.46674438001482</v>
       </c>
       <c r="H25" t="n">
-        <v>75.70293752899561</v>
+        <v>75.70293752899563</v>
       </c>
       <c r="I25" t="n">
-        <v>68.92623994881431</v>
+        <v>68.92623994881434</v>
       </c>
       <c r="J25" t="n">
-        <v>6.834945138228804</v>
+        <v>6.834945138228832</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.76915639872551</v>
+        <v>90.76915639872554</v>
       </c>
       <c r="S25" t="n">
         <v>137.4923630585283</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>199.7947943780469</v>
+        <v>199.794794378047</v>
       </c>
       <c r="V25" t="n">
-        <v>150.7911361179661</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>21.2311896190524</v>
       </c>
       <c r="X25" t="n">
         <v>139.1854204105932</v>
       </c>
       <c r="Y25" t="n">
-        <v>132.0604183736508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,10 +24451,10 @@
         <v>268.158806642239</v>
       </c>
       <c r="E26" t="n">
-        <v>295.4061350938178</v>
+        <v>295.4061350938179</v>
       </c>
       <c r="F26" t="n">
-        <v>320.3518107632675</v>
+        <v>145.2085336369579</v>
       </c>
       <c r="G26" t="n">
         <v>328.7785025366911</v>
@@ -24463,7 +24463,7 @@
         <v>252.9505671373232</v>
       </c>
       <c r="I26" t="n">
-        <v>123.9516545919619</v>
+        <v>123.951654591962</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>136.5716145856874</v>
       </c>
       <c r="U26" t="n">
-        <v>164.8214179293925</v>
+        <v>164.8214179293926</v>
       </c>
       <c r="V26" t="n">
-        <v>66.08474636538116</v>
+        <v>241.228023491691</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>9.144797059604336</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.872397872971106</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>131.2659451576092</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>119.2487502250335</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>93.30774520349335</v>
       </c>
       <c r="C28" t="n">
-        <v>80.72258612018386</v>
+        <v>80.72258612018389</v>
       </c>
       <c r="D28" t="n">
-        <v>62.09123803976838</v>
+        <v>62.09123803976841</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>58.89681304448727</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>81.46674438001479</v>
+        <v>81.46674438001482</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>75.70293752899563</v>
       </c>
       <c r="I28" t="n">
-        <v>68.92623994881431</v>
+        <v>68.92623994881434</v>
       </c>
       <c r="J28" t="n">
-        <v>6.834945138228804</v>
+        <v>6.834945138228832</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>137.4923630585283</v>
       </c>
       <c r="T28" t="n">
-        <v>141.4213544498375</v>
+        <v>72.31848042194868</v>
       </c>
       <c r="U28" t="n">
-        <v>199.7947943780469</v>
+        <v>199.794794378047</v>
       </c>
       <c r="V28" t="n">
-        <v>67.43898359490353</v>
+        <v>165.6134083453841</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>139.1854204105932</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>132.0604183736508</v>
+        <v>132.0604183736509</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>296.2096066850366</v>
       </c>
       <c r="C29" t="n">
-        <v>278.7486567925636</v>
+        <v>183.5932043856627</v>
       </c>
       <c r="D29" t="n">
         <v>268.158806642239</v>
       </c>
       <c r="E29" t="n">
-        <v>295.4061350938178</v>
+        <v>295.4061350938179</v>
       </c>
       <c r="F29" t="n">
         <v>320.3518107632675</v>
@@ -24700,7 +24700,7 @@
         <v>252.9505671373232</v>
       </c>
       <c r="I29" t="n">
-        <v>123.9516545919619</v>
+        <v>123.951654591962</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>63.34488296270571</v>
+        <v>63.34488296270574</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>136.5716145856874</v>
       </c>
       <c r="U29" t="n">
-        <v>164.8214179293925</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.2280234916909</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>194.2930611817085</v>
+        <v>262.7167337389691</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>80.00894867142337</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>20.39579977416281</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>25.71120925805252</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>85.15893612539388</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>51.25699648618557</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.30774520349333</v>
+        <v>93.30774520349335</v>
       </c>
       <c r="C31" t="n">
-        <v>80.72258612018386</v>
+        <v>80.72258612018389</v>
       </c>
       <c r="D31" t="n">
-        <v>62.09123803976838</v>
+        <v>62.09123803976841</v>
       </c>
       <c r="E31" t="n">
-        <v>59.9097276681252</v>
+        <v>59.90972766812523</v>
       </c>
       <c r="F31" t="n">
-        <v>58.89681304448727</v>
+        <v>58.8968130444873</v>
       </c>
       <c r="G31" t="n">
-        <v>81.46674438001479</v>
+        <v>81.46674438001482</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>75.70293752899563</v>
       </c>
       <c r="I31" t="n">
-        <v>68.92623994881431</v>
+        <v>68.92623994881434</v>
       </c>
       <c r="J31" t="n">
-        <v>6.834945138228804</v>
+        <v>6.834945138228832</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.76915639872551</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>137.4923630585283</v>
       </c>
       <c r="T31" t="n">
-        <v>136.5474578655882</v>
+        <v>141.4213544498376</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>4.760377600603221</v>
       </c>
       <c r="V31" t="n">
-        <v>165.613408345384</v>
+        <v>165.6134083453841</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>139.1854204105932</v>
       </c>
       <c r="Y31" t="n">
-        <v>132.0604183736508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,7 +24925,7 @@
         <v>261.2899888357458</v>
       </c>
       <c r="E32" t="n">
-        <v>288.5373172873246</v>
+        <v>272.329019154533</v>
       </c>
       <c r="F32" t="n">
         <v>313.4829929567742</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>56.4760651562125</v>
       </c>
       <c r="S32" t="n">
-        <v>115.6270168013082</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>129.7027967791942</v>
@@ -24982,7 +24982,7 @@
         <v>255.8479159324758</v>
       </c>
       <c r="X32" t="n">
-        <v>200.9787981156447</v>
+        <v>276.3380478935318</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>86.43892739700011</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>73.85376831369065</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>55.22242023327517</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>52.02799523799406</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>74.59792657352158</v>
       </c>
       <c r="H34" t="n">
         <v>68.83411972250239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.0574221423211</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>130.6235452520351</v>
       </c>
       <c r="T34" t="n">
-        <v>6.068429834045048</v>
+        <v>134.5525366433443</v>
       </c>
       <c r="U34" t="n">
         <v>192.9259765715537</v>
       </c>
       <c r="V34" t="n">
-        <v>158.7445905388908</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>193.1299455516538</v>
+        <v>39.31004865323357</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>132.3166026041</v>
       </c>
       <c r="Y34" t="n">
         <v>125.1916005671576</v>
@@ -25165,7 +25165,7 @@
         <v>51.51944834318766</v>
       </c>
       <c r="F35" t="n">
-        <v>76.46512401263732</v>
+        <v>86.60124351535134</v>
       </c>
       <c r="G35" t="n">
         <v>325.90610466372</v>
@@ -25222,7 +25222,7 @@
         <v>280.334467827054</v>
       </c>
       <c r="Y35" t="n">
-        <v>65.96313642969349</v>
+        <v>55.82701692697947</v>
       </c>
     </row>
     <row r="36">
@@ -25235,22 +25235,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H36" t="n">
-        <v>19.11670844875514</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,16 +25283,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T36" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>143.4039542980102</v>
+        <v>100.0703218456447</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>59.26906963358613</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,10 +25332,10 @@
         <v>72.8305396560245</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>162.7410104724129</v>
@@ -25377,7 +25377,7 @@
         <v>197.1263654851759</v>
       </c>
       <c r="X37" t="n">
-        <v>126.4694206787754</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>129.1880205006797</v>
@@ -25469,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>146.5517852207777</v>
+        <v>91.99601221672427</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>127.4636671355491</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>129.443434751759</v>
+        <v>137.6636820263113</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>117.362118734121</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>92.25404580740685</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>69.41523442232547</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>151.7017726747482</v>
       </c>
       <c r="T39" t="n">
         <v>180.183330265732</v>
@@ -25532,7 +25532,7 @@
         <v>212.8191887203357</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>231.71358473183</v>
       </c>
       <c r="X39" t="n">
         <v>185.7915867743879</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>137.1403121901515</v>
+        <v>159.8505817528477</v>
       </c>
       <c r="C40" t="n">
         <v>147.2654226695382</v>
@@ -25566,7 +25566,7 @@
         <v>148.0095809293692</v>
       </c>
       <c r="H40" t="n">
-        <v>142.24577407835</v>
+        <v>119.5355045156537</v>
       </c>
       <c r="I40" t="n">
         <v>135.4690764981687</v>
@@ -25642,13 +25642,13 @@
         <v>396.8853465271666</v>
       </c>
       <c r="G41" t="n">
-        <v>405.3120383005902</v>
+        <v>328.8704989983225</v>
       </c>
       <c r="H41" t="n">
         <v>329.4841029012223</v>
       </c>
       <c r="I41" t="n">
-        <v>133.1554825384237</v>
+        <v>200.4851903558611</v>
       </c>
       <c r="J41" t="n">
         <v>1.958590140067713</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.43687942433712</v>
+        <v>139.8784187266049</v>
       </c>
       <c r="S41" t="n">
-        <v>199.0293703717005</v>
+        <v>122.5878310694328</v>
       </c>
       <c r="T41" t="n">
-        <v>213.1051503495866</v>
+        <v>136.6636110473188</v>
       </c>
       <c r="U41" t="n">
-        <v>241.3549536932917</v>
+        <v>174.0252458758542</v>
       </c>
       <c r="V41" t="n">
         <v>317.7615592555901</v>
       </c>
       <c r="W41" t="n">
-        <v>262.8087302006005</v>
+        <v>339.2502695028682</v>
       </c>
       <c r="X41" t="n">
-        <v>283.2988621616565</v>
+        <v>359.7404014639242</v>
       </c>
       <c r="Y41" t="n">
         <v>376.2472394415088</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>80.10094513305478</v>
+        <v>156.5424844353225</v>
       </c>
       <c r="C42" t="n">
         <v>162.7177997737709</v>
@@ -25721,13 +25721,13 @@
         <v>135.0785131788391</v>
       </c>
       <c r="G42" t="n">
-        <v>50.91127864639807</v>
+        <v>127.3528179486658</v>
       </c>
       <c r="H42" t="n">
         <v>102.2447450219517</v>
       </c>
       <c r="I42" t="n">
-        <v>12.07622581943284</v>
+        <v>79.40593363687027</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,16 +25757,16 @@
         <v>90.16713493809833</v>
       </c>
       <c r="S42" t="n">
-        <v>161.692471889293</v>
+        <v>85.25093258702526</v>
       </c>
       <c r="T42" t="n">
         <v>190.1740294802768</v>
       </c>
       <c r="U42" t="n">
-        <v>215.95068286643</v>
+        <v>139.5091435641623</v>
       </c>
       <c r="V42" t="n">
-        <v>222.8098879348805</v>
+        <v>155.480180117443</v>
       </c>
       <c r="W42" t="n">
         <v>165.262744644107</v>
@@ -25848,13 +25848,13 @@
         <v>242.1469441092832</v>
       </c>
       <c r="W43" t="n">
-        <v>276.5322991220462</v>
+        <v>249.9362727048148</v>
       </c>
       <c r="X43" t="n">
-        <v>139.2774168722246</v>
+        <v>215.7189561744923</v>
       </c>
       <c r="Y43" t="n">
-        <v>181.9979277203185</v>
+        <v>132.1524148352822</v>
       </c>
     </row>
     <row r="44">
@@ -25879,13 +25879,13 @@
         <v>396.8853465271666</v>
       </c>
       <c r="G44" t="n">
-        <v>337.9823304831528</v>
+        <v>405.3120383005902</v>
       </c>
       <c r="H44" t="n">
-        <v>253.0425635989546</v>
+        <v>329.4841029012223</v>
       </c>
       <c r="I44" t="n">
-        <v>124.0436510535934</v>
+        <v>200.4851903558611</v>
       </c>
       <c r="J44" t="n">
         <v>1.958590140067713</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>139.8784187266049</v>
+        <v>63.43687942433712</v>
       </c>
       <c r="S44" t="n">
-        <v>199.0293703717005</v>
+        <v>122.5878310694328</v>
       </c>
       <c r="T44" t="n">
-        <v>213.1051503495866</v>
+        <v>136.6636110473188</v>
       </c>
       <c r="U44" t="n">
-        <v>241.3549536932917</v>
+        <v>174.0252458758542</v>
       </c>
       <c r="V44" t="n">
-        <v>241.3200199533223</v>
+        <v>317.7615592555901</v>
       </c>
       <c r="W44" t="n">
         <v>339.2502695028682</v>
@@ -25952,19 +25952,19 @@
         <v>137.4543663500939</v>
       </c>
       <c r="E45" t="n">
-        <v>71.21284193858838</v>
+        <v>147.6543812408561</v>
       </c>
       <c r="F45" t="n">
-        <v>58.63697387657132</v>
+        <v>67.74880536140164</v>
       </c>
       <c r="G45" t="n">
         <v>50.91127864639807</v>
       </c>
       <c r="H45" t="n">
-        <v>34.91503720451422</v>
+        <v>25.8032057196839</v>
       </c>
       <c r="I45" t="n">
-        <v>79.40593363687027</v>
+        <v>2.964394334602517</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>93.39974166512474</v>
       </c>
       <c r="C46" t="n">
-        <v>157.256121884083</v>
+        <v>80.81458258181527</v>
       </c>
       <c r="D46" t="n">
-        <v>138.6247738036676</v>
+        <v>112.0287473864361</v>
       </c>
       <c r="E46" t="n">
         <v>136.4432634320244</v>
@@ -26040,10 +26040,10 @@
         <v>158.000280143914</v>
       </c>
       <c r="H46" t="n">
-        <v>75.79493399062702</v>
+        <v>152.2364732928948</v>
       </c>
       <c r="I46" t="n">
-        <v>118.8637492954821</v>
+        <v>145.4597757127135</v>
       </c>
       <c r="J46" t="n">
         <v>83.36848090212797</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>361527.9118455775</v>
+        <v>361527.9118455774</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>543824.6808765162</v>
+        <v>543824.6808765159</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>543824.6808765162</v>
+        <v>543824.680876516</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>543824.680876516</v>
+        <v>543824.6808765159</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>560736.1483970804</v>
+        <v>560736.1483970806</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>375839.986004839</v>
+        <v>375839.9860048391</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132604</v>
+        <v>757830.6133132605</v>
       </c>
       <c r="C2" t="n">
         <v>757830.6133132605</v>
       </c>
       <c r="D2" t="n">
-        <v>757830.6133132604</v>
+        <v>757830.6133132606</v>
       </c>
       <c r="E2" t="n">
-        <v>260164.7881155856</v>
+        <v>260164.7881155855</v>
       </c>
       <c r="F2" t="n">
         <v>260164.7881155855</v>
@@ -26331,16 +26331,16 @@
         <v>339676.6632797578</v>
       </c>
       <c r="H2" t="n">
-        <v>349013.0639603154</v>
+        <v>349013.0639603153</v>
       </c>
       <c r="I2" t="n">
+        <v>541767.1905415257</v>
+      </c>
+      <c r="J2" t="n">
         <v>541767.190541526</v>
       </c>
-      <c r="J2" t="n">
-        <v>541767.1905415257</v>
-      </c>
       <c r="K2" t="n">
-        <v>541767.1905415258</v>
+        <v>541767.1905415256</v>
       </c>
       <c r="L2" t="n">
         <v>560513.2584709848</v>
@@ -26355,7 +26355,7 @@
         <v>260164.7881155855</v>
       </c>
       <c r="P2" t="n">
-        <v>260164.7881155856</v>
+        <v>260164.7881155855</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47604.42719381241</v>
+        <v>47604.42719381239</v>
       </c>
       <c r="H3" t="n">
         <v>3197.135946817684</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>383471.796966253</v>
+        <v>382951.7230594433</v>
       </c>
       <c r="C4" t="n">
-        <v>383471.796966253</v>
+        <v>382951.7230594433</v>
       </c>
       <c r="D4" t="n">
-        <v>383471.796966253</v>
+        <v>382951.7230594433</v>
       </c>
       <c r="E4" t="n">
-        <v>61193.42564911734</v>
+        <v>60576.14560165093</v>
       </c>
       <c r="F4" t="n">
-        <v>61193.42564911734</v>
+        <v>60576.14560165093</v>
       </c>
       <c r="G4" t="n">
-        <v>80171.18593632925</v>
+        <v>79361.61207362148</v>
       </c>
       <c r="H4" t="n">
-        <v>85938.33628512385</v>
+        <v>85128.76242241607</v>
       </c>
       <c r="I4" t="n">
-        <v>200844.7395223426</v>
+        <v>200006.7779198005</v>
       </c>
       <c r="J4" t="n">
-        <v>200844.7395223426</v>
+        <v>200006.7779198005</v>
       </c>
       <c r="K4" t="n">
-        <v>200844.7395223426</v>
+        <v>200006.7779198005</v>
       </c>
       <c r="L4" t="n">
-        <v>212037.996102407</v>
+        <v>211197.380729576</v>
       </c>
       <c r="M4" t="n">
-        <v>190257.6455071539</v>
+        <v>189448.0716444462</v>
       </c>
       <c r="N4" t="n">
-        <v>90083.433815048</v>
+        <v>89273.8599523403</v>
       </c>
       <c r="O4" t="n">
-        <v>61193.42564911733</v>
+        <v>60576.14560165093</v>
       </c>
       <c r="P4" t="n">
-        <v>61193.42564911734</v>
+        <v>60576.14560165093</v>
       </c>
     </row>
     <row r="5">
@@ -26487,7 +26487,7 @@
         <v>15756.03030412273</v>
       </c>
       <c r="H5" t="n">
-        <v>16092.005331514</v>
+        <v>16092.00533151399</v>
       </c>
       <c r="I5" t="n">
         <v>26177.98831275695</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>340731.2163470074</v>
+        <v>341251.2902538172</v>
       </c>
       <c r="C6" t="n">
-        <v>340731.2163470075</v>
+        <v>341251.2902538172</v>
       </c>
       <c r="D6" t="n">
-        <v>340731.2163470074</v>
+        <v>341251.2902538173</v>
       </c>
       <c r="E6" t="n">
-        <v>162667.4874911944</v>
+        <v>163284.7675386608</v>
       </c>
       <c r="F6" t="n">
-        <v>193483.8087846228</v>
+        <v>194101.0888320892</v>
       </c>
       <c r="G6" t="n">
-        <v>196145.0198454935</v>
+        <v>196954.5937082013</v>
       </c>
       <c r="H6" t="n">
-        <v>243785.5863968598</v>
+        <v>244595.1602595675</v>
       </c>
       <c r="I6" t="n">
-        <v>240622.6756111952</v>
+        <v>241460.6372137371</v>
       </c>
       <c r="J6" t="n">
-        <v>306751.9033347903</v>
+        <v>307589.8649373327</v>
       </c>
       <c r="K6" t="n">
-        <v>314744.4627064263</v>
+        <v>315582.4243089682</v>
       </c>
       <c r="L6" t="n">
-        <v>311675.961957334</v>
+        <v>312516.577330165</v>
       </c>
       <c r="M6" t="n">
-        <v>305432.9029652023</v>
+        <v>306242.4768279101</v>
       </c>
       <c r="N6" t="n">
-        <v>249306.6155434634</v>
+        <v>250116.1894061711</v>
       </c>
       <c r="O6" t="n">
-        <v>193483.8087846228</v>
+        <v>194101.0888320892</v>
       </c>
       <c r="P6" t="n">
-        <v>193483.8087846228</v>
+        <v>194101.0888320892</v>
       </c>
     </row>
   </sheetData>
@@ -26700,19 +26700,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="G2" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="H2" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="I2" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="J2" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="K2" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="L2" t="n">
         <v>93.39305278493718</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.121881408051594</v>
+        <v>3.121881408051564</v>
       </c>
       <c r="H2" t="n">
         <v>3.996419933522105</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.121881408051594</v>
+        <v>3.121881408051564</v>
       </c>
       <c r="M2" t="n">
         <v>3.996419933522105</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="C17" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="D17" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="E17" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="F17" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="G17" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="H17" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="I17" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="S17" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="T17" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="U17" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="V17" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="W17" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="X17" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
     </row>
     <row r="18">
@@ -28642,28 +28642,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="C18" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="D18" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="E18" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="F18" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="G18" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="H18" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="I18" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="S18" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="T18" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="U18" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="V18" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="W18" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="X18" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="Y18" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
     </row>
     <row r="19">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="C19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="D19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="E19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="F19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="G19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="H19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="I19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="J19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="K19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="L19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="M19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="N19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="O19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="P19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="R19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="S19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="T19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="U19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="V19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="W19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="X19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.1125806225964</v>
+        <v>13.11258062259637</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="C20" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="D20" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="E20" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="F20" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="G20" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="H20" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="I20" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28848,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="S20" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="T20" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="U20" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="V20" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="W20" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="X20" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
     </row>
     <row r="21">
@@ -28879,28 +28879,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="C21" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="D21" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="E21" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="F21" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="G21" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="H21" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="I21" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="S21" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="T21" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="U21" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="V21" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="W21" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="X21" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="Y21" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
     </row>
     <row r="22">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="C22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="D22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="E22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="F22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="G22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="H22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="I22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="J22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="K22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="L22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="M22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="N22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="O22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="P22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="R22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="S22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="T22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="U22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="V22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="W22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="X22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
       <c r="Y22" t="n">
-        <v>17.1090005561185</v>
+        <v>17.10900055611847</v>
       </c>
     </row>
     <row r="23">
@@ -29037,34 +29037,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="C23" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="D23" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="E23" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="F23" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="G23" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="H23" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="I23" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="K23" t="n">
-        <v>27.21938754214661</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29073,40 +29073,40 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>86.52423497844397</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>39.16867689675913</v>
       </c>
       <c r="P23" t="n">
-        <v>86.52423497844397</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="R23" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="S23" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="T23" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="U23" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="V23" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="W23" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="X23" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="Y23" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
     </row>
     <row r="24">
@@ -29116,28 +29116,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="C24" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="D24" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="E24" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="F24" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="G24" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="H24" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="I24" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29164,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="S24" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="T24" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="U24" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="V24" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="W24" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="X24" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="Y24" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
     </row>
     <row r="25">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="C25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="D25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="E25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="F25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="G25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="H25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="I25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="J25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="K25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="L25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="M25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="N25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="O25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="P25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="R25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="S25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="T25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="U25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="V25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="W25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="X25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="Y25" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
     </row>
     <row r="26">
@@ -29274,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="C26" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="D26" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="E26" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="F26" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="G26" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="H26" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="I26" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="J26" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="K26" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>39.16867689675915</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.52423497844397</v>
+        <v>39.16867689675913</v>
       </c>
       <c r="R26" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="S26" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="T26" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="U26" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="V26" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="W26" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="X26" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="Y26" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
     </row>
     <row r="27">
@@ -29353,28 +29353,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="C27" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="D27" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="E27" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="F27" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="G27" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="H27" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="I27" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29401,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="S27" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="T27" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="U27" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="V27" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="W27" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="X27" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="Y27" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="C28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="D28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="E28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="F28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="G28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="H28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="I28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="J28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="K28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="L28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="M28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="N28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="O28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="P28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="R28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="S28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="T28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="U28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="V28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="W28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="X28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="Y28" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
     </row>
     <row r="29">
@@ -29511,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="C29" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="D29" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="E29" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="F29" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="G29" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="H29" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="I29" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="J29" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="M29" t="n">
-        <v>39.16867689675898</v>
+        <v>39.16867689675915</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>86.52423497844397</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="R29" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="S29" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="T29" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="U29" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="V29" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="W29" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="X29" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="Y29" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
     </row>
     <row r="30">
@@ -29590,28 +29590,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="C30" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="D30" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="E30" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="F30" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="G30" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="H30" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="I30" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -29638,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="S30" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="T30" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="U30" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="V30" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="W30" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="X30" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="Y30" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="C31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="D31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="E31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="F31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="G31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="H31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="I31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="J31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="K31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="L31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="M31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="N31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="O31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="P31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="R31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="S31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="T31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="U31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="V31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="W31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="X31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
       <c r="Y31" t="n">
-        <v>86.52423497844397</v>
+        <v>86.52423497844394</v>
       </c>
     </row>
     <row r="32">
@@ -29778,19 +29778,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>44.43844038090103</v>
+      </c>
+      <c r="N32" t="n">
         <v>93.39305278493718</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>44.43844038090089</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>93.39305278493718</v>
@@ -29842,7 +29842,7 @@
         <v>93.39305278493718</v>
       </c>
       <c r="G33" t="n">
-        <v>93.3930527849372</v>
+        <v>93.39305278493718</v>
       </c>
       <c r="H33" t="n">
         <v>93.39305278493718</v>
@@ -29851,7 +29851,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0.7465913262578571</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -35418,13 +35418,13 @@
         <v>76.44153930226776</v>
       </c>
       <c r="M11" t="n">
+        <v>73.35299225975187</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>76.44153930226776</v>
-      </c>
-      <c r="N11" t="n">
-        <v>73.35299225975187</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>3.257478609924298</v>
+        <v>76.44153930226776</v>
       </c>
       <c r="L12" t="n">
         <v>76.44153930226776</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>76.44153930226776</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>76.44153930226776</v>
+        <v>3.257478609924302</v>
       </c>
       <c r="P12" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35652,16 +35652,16 @@
         <v>76.44153930226776</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>73.35299225975186</v>
+      </c>
+      <c r="N14" t="n">
         <v>76.44153930226776</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>76.44153930226776</v>
-      </c>
-      <c r="N14" t="n">
-        <v>73.35299225975187</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>3.257478609924298</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>76.44153930226776</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>3.257478609924302</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,19 +36047,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>40.70260588291254</v>
+        <v>40.70260588291251</v>
       </c>
       <c r="M19" t="n">
-        <v>52.69645758443698</v>
+        <v>52.69645758443696</v>
       </c>
       <c r="N19" t="n">
-        <v>57.24475300182499</v>
+        <v>57.24475300182496</v>
       </c>
       <c r="O19" t="n">
-        <v>37.69770853663607</v>
+        <v>37.69770853663604</v>
       </c>
       <c r="P19" t="n">
-        <v>10.39113988748989</v>
+        <v>10.39113988748986</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O21" t="n">
         <v>43.28534947792182</v>
-      </c>
-      <c r="O21" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36284,19 +36284,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>44.69902581643464</v>
+        <v>44.69902581643461</v>
       </c>
       <c r="M22" t="n">
-        <v>56.69287751795909</v>
+        <v>56.69287751795906</v>
       </c>
       <c r="N22" t="n">
-        <v>61.24117293534709</v>
+        <v>61.24117293534707</v>
       </c>
       <c r="O22" t="n">
-        <v>41.69412847015818</v>
+        <v>41.69412847015815</v>
       </c>
       <c r="P22" t="n">
-        <v>14.38755982101199</v>
+        <v>14.38755982101196</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>74.57494562383143</v>
       </c>
       <c r="K23" t="n">
-        <v>131.2749490683308</v>
+        <v>190.5797965046281</v>
       </c>
       <c r="L23" t="n">
         <v>181.8947995804632</v>
@@ -36369,16 +36369,16 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N23" t="n">
-        <v>294.4580957938372</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O23" t="n">
-        <v>150.7019698410586</v>
+        <v>189.8706467378178</v>
       </c>
       <c r="P23" t="n">
-        <v>177.0899473946571</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q23" t="n">
-        <v>76.53353576389917</v>
+        <v>76.53353576389914</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>173.5246352566855</v>
       </c>
       <c r="M24" t="n">
         <v>310.9207631966142</v>
@@ -36451,13 +36451,13 @@
         <v>310.9207631966142</v>
       </c>
       <c r="O24" t="n">
-        <v>180.2737941029454</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>64.25474315256112</v>
+        <v>64.25474315256109</v>
       </c>
       <c r="L25" t="n">
         <v>114.1142602387601</v>
       </c>
       <c r="M25" t="n">
-        <v>126.1081119402846</v>
+        <v>126.1081119402845</v>
       </c>
       <c r="N25" t="n">
         <v>130.6564073576725</v>
@@ -36533,10 +36533,10 @@
         <v>111.1093628924836</v>
       </c>
       <c r="P25" t="n">
-        <v>83.80279424333746</v>
+        <v>83.80279424333743</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.362191726749586</v>
+        <v>0.3621917267495576</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>74.57494562383145</v>
+        <v>74.57494562383143</v>
       </c>
       <c r="K26" t="n">
-        <v>190.5797965046282</v>
+        <v>190.5797965046281</v>
       </c>
       <c r="L26" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655598</v>
+        <v>305.6915352440037</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>189.8706467378178</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
       </c>
       <c r="Q26" t="n">
-        <v>76.53353576389917</v>
+        <v>29.17797768221433</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>173.5246352566855</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>310.9207631966142</v>
+        <v>55.44012124166761</v>
       </c>
       <c r="N27" t="n">
         <v>310.9207631966142</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>64.25474315256112</v>
+        <v>64.25474315256109</v>
       </c>
       <c r="L28" t="n">
         <v>114.1142602387601</v>
       </c>
       <c r="M28" t="n">
-        <v>126.1081119402846</v>
+        <v>126.1081119402845</v>
       </c>
       <c r="N28" t="n">
         <v>130.6564073576725</v>
@@ -36770,10 +36770,10 @@
         <v>111.1093628924836</v>
       </c>
       <c r="P28" t="n">
-        <v>83.80279424333746</v>
+        <v>83.80279424333743</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.362191726749586</v>
+        <v>0.3621917267495576</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>74.57494562383145</v>
+        <v>74.57494562383143</v>
       </c>
       <c r="K29" t="n">
         <v>104.0555615261842</v>
       </c>
       <c r="L29" t="n">
-        <v>181.8947995804632</v>
+        <v>268.4190345589071</v>
       </c>
       <c r="M29" t="n">
-        <v>258.3359771623187</v>
+        <v>258.3359771623189</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>237.2262048195026</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
       </c>
       <c r="Q29" t="n">
-        <v>76.53353576389917</v>
+        <v>76.53353576389914</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>125.5356348914951</v>
+        <v>55.44012124166761</v>
       </c>
       <c r="N30" t="n">
         <v>310.9207631966142</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>64.25474315256112</v>
+        <v>64.25474315256109</v>
       </c>
       <c r="L31" t="n">
         <v>114.1142602387601</v>
       </c>
       <c r="M31" t="n">
-        <v>126.1081119402846</v>
+        <v>126.1081119402845</v>
       </c>
       <c r="N31" t="n">
         <v>130.6564073576725</v>
@@ -37007,10 +37007,10 @@
         <v>111.1093628924836</v>
       </c>
       <c r="P31" t="n">
-        <v>83.80279424333746</v>
+        <v>83.80279424333743</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.362191726749586</v>
+        <v>0.3621917267495576</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
-        <v>275.2878523654004</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>263.6057406464608</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153932</v>
+        <v>301.3269136003304</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>135.004152797114</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q32" t="n">
         <v>83.40235357039238</v>
@@ -37390,16 +37390,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9067907798016</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37636,7 +37636,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>76.44153930226776</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>76.44153930226776</v>
       </c>
       <c r="M41" t="n">
-        <v>73.35299225975186</v>
+        <v>76.44153930226776</v>
       </c>
       <c r="N41" t="n">
-        <v>76.44153930226776</v>
+        <v>73.35299225975187</v>
       </c>
       <c r="O41" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>76.44153930226776</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
         <v>76.44153930226776</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>73.35299225975187</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>76.44153930226776</v>
       </c>
       <c r="M44" t="n">
+        <v>73.35299225975186</v>
+      </c>
+      <c r="N44" t="n">
         <v>76.44153930226776</v>
       </c>
-      <c r="N44" t="n">
-        <v>73.35299225975187</v>
-      </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>76.44153930226776</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>76.44153930226776</v>
       </c>
       <c r="L45" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>76.44153930226776</v>
@@ -38110,7 +38110,7 @@
         <v>73.35299225975187</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>76.44153930226776</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
